--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2D4AF-B822-43DE-8D6D-2AAE4CDE9C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6F19F-99F0-4259-B586-250A83D3F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="material_property" sheetId="1" r:id="rId1"/>
-    <sheet name="citation_type" sheetId="2" r:id="rId2"/>
+    <sheet name="property" sheetId="1" r:id="rId1"/>
+    <sheet name="type" sheetId="2" r:id="rId2"/>
     <sheet name="condition" sheetId="3" r:id="rId3"/>
+    <sheet name="keywords" sheetId="4" r:id="rId4"/>
+    <sheet name="identifiers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="679">
   <si>
     <t>Name</t>
   </si>
@@ -1487,6 +1489,594 @@
   </si>
   <si>
     <t>volume rate of change</t>
+  </si>
+  <si>
+    <t>acetylene</t>
+  </si>
+  <si>
+    <t>a chemical with one or more triple bounds (C≡C)</t>
+  </si>
+  <si>
+    <t>acrylate</t>
+  </si>
+  <si>
+    <t>a chemical with C=C-C(=O)O-R structure</t>
+  </si>
+  <si>
+    <t>alternating</t>
+  </si>
+  <si>
+    <t>a polymer where the composition oscillates between two repeating structures</t>
+  </si>
+  <si>
+    <t>amorphous</t>
+  </si>
+  <si>
+    <t>a polymer that does not exhibit any crystalline structure</t>
+  </si>
+  <si>
+    <t>atactic</t>
+  </si>
+  <si>
+    <t>a polymer with substituent having a random distribution of stereoconfiguration</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>a polymer with a two or more repeating structures are distributed in groups</t>
+  </si>
+  <si>
+    <t>bottlebrush</t>
+  </si>
+  <si>
+    <t>a polymer with a very high density of chains branching off the main linear chain</t>
+  </si>
+  <si>
+    <t>carbosiloxane</t>
+  </si>
+  <si>
+    <t>a chemical with R-Si(R)(R)-R within a ring</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>living organism</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>a polymer with a main chain with small chains branching off the main chain</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>a material with two or more components</t>
+  </si>
+  <si>
+    <t>conjugated_poly</t>
+  </si>
+  <si>
+    <t>a polymer with delocalized electrons in the p orbital along the backbone</t>
+  </si>
+  <si>
+    <t>copolymer</t>
+  </si>
+  <si>
+    <t>a polymer with a two or more repeating structures</t>
+  </si>
+  <si>
+    <t>cyclic_amine</t>
+  </si>
+  <si>
+    <t>a chemical with R-N(R)-R within a ring</t>
+  </si>
+  <si>
+    <t>cyclic_anhydride</t>
+  </si>
+  <si>
+    <t>a chemical with R-C(=O)-O-C(=O)-R with a ring (includes N-carboxy anhydrides)</t>
+  </si>
+  <si>
+    <t>cyclic_carbonate</t>
+  </si>
+  <si>
+    <t>a chemical with R-O-C(=O)O-R within a ring</t>
+  </si>
+  <si>
+    <t>cyclic_ether</t>
+  </si>
+  <si>
+    <t>a chemical with R-O-R within a ring</t>
+  </si>
+  <si>
+    <t>cyclic_olefin</t>
+  </si>
+  <si>
+    <t>a chemical where at least one double bond is found in a ring (excluding aromatic rings)</t>
+  </si>
+  <si>
+    <t>cyclic_sulfur</t>
+  </si>
+  <si>
+    <t>a chemical with R-S-R or R-S(=O)-R within a ring</t>
+  </si>
+  <si>
+    <t>diacid chloride</t>
+  </si>
+  <si>
+    <t>a chemical with two or more -COCl groups</t>
+  </si>
+  <si>
+    <t>diamines</t>
+  </si>
+  <si>
+    <t>a chemical with two or more -NH2 groups</t>
+  </si>
+  <si>
+    <t>dicarboxylic_acid</t>
+  </si>
+  <si>
+    <t>a chemical with two or more -C(=O)OH groups</t>
+  </si>
+  <si>
+    <t>diene</t>
+  </si>
+  <si>
+    <t>a chemical with two or more double bonds</t>
+  </si>
+  <si>
+    <t>diol</t>
+  </si>
+  <si>
+    <t>a chemical with two or more -OH groups</t>
+  </si>
+  <si>
+    <t>elastomer</t>
+  </si>
+  <si>
+    <t>a cross-linked polymer with a glass transition well below room temperature</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>a polymer where the composition gradually transitions from one repeating structure into another</t>
+  </si>
+  <si>
+    <t>homopolymer</t>
+  </si>
+  <si>
+    <t>a polymer with a single repeating structure</t>
+  </si>
+  <si>
+    <t>hyperbranch</t>
+  </si>
+  <si>
+    <t>a polymer with a very high degree of branches and branches have more branching</t>
+  </si>
+  <si>
+    <t>inorganic</t>
+  </si>
+  <si>
+    <t>a chemical lacking carbon-hydrogen bonds</t>
+  </si>
+  <si>
+    <t>isotactic</t>
+  </si>
+  <si>
+    <t>a polymer with all substituent having the same stereoconfiguration</t>
+  </si>
+  <si>
+    <t>lactam</t>
+  </si>
+  <si>
+    <t>(cyclic amide) a chemical with R-C(=O)N(R)-R within a ring</t>
+  </si>
+  <si>
+    <t>lactone</t>
+  </si>
+  <si>
+    <t>(cyclic ester) a chemical with R-C(=O)O-R within a ring</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>a polymer with a single line of repeat units</t>
+  </si>
+  <si>
+    <t>methylacrylate</t>
+  </si>
+  <si>
+    <t>a chemical with C=C(C)-C(=O)O-R structure</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>a polymer with a where a molecular structure percolates through the full macroscopic sample</t>
+  </si>
+  <si>
+    <t>olefin</t>
+  </si>
+  <si>
+    <t>a chemical with one double bond and is locally surrounded by only C and H</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>a chemical made of primarily carbon and hydrogen atoms,and may include any other elements (e.g., nitrogen, oxygen, halogens, phosphorus, silicon, sulfur).</t>
+  </si>
+  <si>
+    <t>organometallic</t>
+  </si>
+  <si>
+    <t>a chemical containing at least one metal atom and non-metal atom</t>
+  </si>
+  <si>
+    <t>oxazoline</t>
+  </si>
+  <si>
+    <t>a chemical with a R-N=C(R)-O-R within a five membered ring</t>
+  </si>
+  <si>
+    <t>phosphazenes</t>
+  </si>
+  <si>
+    <t>a chemical with R-P(R)(R)=N-R within a ring</t>
+  </si>
+  <si>
+    <t>phosphoesters</t>
+  </si>
+  <si>
+    <t>a chemical with R-O-P(=O)(OR)-O-R within a ring</t>
+  </si>
+  <si>
+    <t>phosphonate</t>
+  </si>
+  <si>
+    <t>a chemical with R-O-P(=O)(C(R)(R)R)-O-R within a ring</t>
+  </si>
+  <si>
+    <t>phostone</t>
+  </si>
+  <si>
+    <t>a chemical with R-P(=O)(R)-O-R within a ring</t>
+  </si>
+  <si>
+    <t>polyacrylates</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(C(=O)O-R)[$] structure</t>
+  </si>
+  <si>
+    <t>polyamides</t>
+  </si>
+  <si>
+    <t>a polymer with R-C(=O)N(R)-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyamines</t>
+  </si>
+  <si>
+    <t>a polymer with R-N(R)-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyanydrides</t>
+  </si>
+  <si>
+    <t>a polymer with R-C(=O)-O-C(=O)-R within the backbone</t>
+  </si>
+  <si>
+    <t>polycarbonates</t>
+  </si>
+  <si>
+    <t>a polymer with R-O-C(=O)O-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyesters</t>
+  </si>
+  <si>
+    <t>a polymer with R-C(=O)O-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyethers</t>
+  </si>
+  <si>
+    <t>a polymer with R-O-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyketones</t>
+  </si>
+  <si>
+    <t>a polymer with R-C(=O)-R with the backbone</t>
+  </si>
+  <si>
+    <t>polymer_blend</t>
+  </si>
+  <si>
+    <t>a material with two or more composed of two or more polymers</t>
+  </si>
+  <si>
+    <t>polymer_protein</t>
+  </si>
+  <si>
+    <t>a protein connected to a synthetic polymer</t>
+  </si>
+  <si>
+    <t>polymethacrylates</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(C)(C(=O)O-R)[$] structure</t>
+  </si>
+  <si>
+    <t>polyolefins</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(R)[$] structure and the locally surrounding is C and H</t>
+  </si>
+  <si>
+    <t>polyphenylenes</t>
+  </si>
+  <si>
+    <t>a polymer with [$]c1cccc(c1)[$] structure</t>
+  </si>
+  <si>
+    <t>polyphosphazenes</t>
+  </si>
+  <si>
+    <t>a polymer with R-P(R)(R)=N-R within the backbone</t>
+  </si>
+  <si>
+    <t>polystyrenes</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(c1ccccc1)[$] structure</t>
+  </si>
+  <si>
+    <t>polysulfides</t>
+  </si>
+  <si>
+    <t>a polymer with R-S-R within the backbone</t>
+  </si>
+  <si>
+    <t>polysulfones</t>
+  </si>
+  <si>
+    <t>a polymer with R-S(=O)(=O)-R within the backbone</t>
+  </si>
+  <si>
+    <t>polysulfoxides</t>
+  </si>
+  <si>
+    <t>a polymer with R-S(=O)-R within the backbone</t>
+  </si>
+  <si>
+    <t>polythiophenes</t>
+  </si>
+  <si>
+    <t>a polymer with C=C1=CC=CS1 5 member ring within the backbone</t>
+  </si>
+  <si>
+    <t>polyureas</t>
+  </si>
+  <si>
+    <t>a polymer with R-N(R)-C(=O)-N(R)-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyurethanes</t>
+  </si>
+  <si>
+    <t>a polymer with R-N(R)-C(=O)O-R within the backbone</t>
+  </si>
+  <si>
+    <t>polyvinyl_esters</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(OC(=O)-R)[$] structure</t>
+  </si>
+  <si>
+    <t>polyvinyl_ethers</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(OR)[$] structure</t>
+  </si>
+  <si>
+    <t>polyvinyls</t>
+  </si>
+  <si>
+    <t>a polymer with [$]CC(R)[$] structure and the locally surrounding by elements other than C and H</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>a sequence of amino acids</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>a polymer with a two or more repeating structures are randomly distributed</t>
+  </si>
+  <si>
+    <t>regio_irregular</t>
+  </si>
+  <si>
+    <t>a polymer with more than one positional isomer; mixture of head-to-tail, tail-to-tail, and head-to-head</t>
+  </si>
+  <si>
+    <t>regio_regular</t>
+  </si>
+  <si>
+    <t>a polymer with one positional isomer; all head-to-tail or tail-to-tail and head-to-head</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>a polymer with no ends or a loop of repeat units</t>
+  </si>
+  <si>
+    <t>semicrystalline</t>
+  </si>
+  <si>
+    <t>a polymer that does exhibit some crystalline structure</t>
+  </si>
+  <si>
+    <t>silicones</t>
+  </si>
+  <si>
+    <t>a polymer with R-Si(R)(R)-R within the backbone</t>
+  </si>
+  <si>
+    <t>siloxane</t>
+  </si>
+  <si>
+    <t>a chemical with R-O-Si(R)(R)-O-R within a ring</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>a polymer with 3 or more arms originating from a single point</t>
+  </si>
+  <si>
+    <t>styrene</t>
+  </si>
+  <si>
+    <t>a chemical with C=C-(c1ccccc1) structure</t>
+  </si>
+  <si>
+    <t>syndiotactic</t>
+  </si>
+  <si>
+    <t>a polymer with substituent alternating stereoconfiguration</t>
+  </si>
+  <si>
+    <t>thermoplastic</t>
+  </si>
+  <si>
+    <t>a polymer that becomes pliable at elevated temperature adn solidifies upon cooling to room temperature</t>
+  </si>
+  <si>
+    <t>thermoset</t>
+  </si>
+  <si>
+    <t>a cross-linked polymer</t>
+  </si>
+  <si>
+    <t>thiophene</t>
+  </si>
+  <si>
+    <t>a chemical with C=C1=CC=CS1 5 member ring</t>
+  </si>
+  <si>
+    <t>vinyl</t>
+  </si>
+  <si>
+    <t>a chemical with C=C-R structure and the local surrounding contains elements other than C and H</t>
+  </si>
+  <si>
+    <t>vinyl_ester</t>
+  </si>
+  <si>
+    <t>a chemical with C=C-O-(C=O)-R structure</t>
+  </si>
+  <si>
+    <t>vinyl_ether</t>
+  </si>
+  <si>
+    <t>a chemical with C=C-O-R structure</t>
+  </si>
+  <si>
+    <t>alternative_names</t>
+  </si>
+  <si>
+    <t>additional names</t>
+  </si>
+  <si>
+    <t>amino_acid</t>
+  </si>
+  <si>
+    <t>amino acid sequence</t>
+  </si>
+  <si>
+    <t>bigsmiles</t>
+  </si>
+  <si>
+    <t>bigSMILES line notation</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>CAS number</t>
+  </si>
+  <si>
+    <t>chem_formula</t>
+  </si>
+  <si>
+    <t>chemical formula</t>
+  </si>
+  <si>
+    <t>chem_repeat</t>
+  </si>
+  <si>
+    <t>chemical formula of repeating unit</t>
+  </si>
+  <si>
+    <t>inchi</t>
+  </si>
+  <si>
+    <t>IUPAC International Chemical Identifier</t>
+  </si>
+  <si>
+    <t>inchi_key</t>
+  </si>
+  <si>
+    <t>a hashed version of the full InChI</t>
+  </si>
+  <si>
+    <t>lot_number</t>
+  </si>
+  <si>
+    <t>lot or batch number</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>preferred_name</t>
+  </si>
+  <si>
+    <t>preferred name</t>
+  </si>
+  <si>
+    <t>pubchem_cid</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>PubChem CID</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>simplified molecular-input line-entry system (SMILES)</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>company the material was obtain from</t>
   </si>
 </sst>
 </file>
@@ -1582,6 +2172,31 @@
     <tableColumn id="6" xr3:uid="{94B860CD-B72B-4A3C-9DCF-F73C2C739F80}" name="SI unit"/>
     <tableColumn id="7" xr3:uid="{639E057E-572B-4D2F-B4CE-D19ED220DA5F}" name="Preferred unit"/>
     <tableColumn id="8" xr3:uid="{8DF54677-4B11-4B39-8B73-4C3EE52B7A77}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83C72D4E-1636-49AF-AFF3-6DAEBDE31235}" name="Table2" displayName="Table2" ref="A1:B85" totalsRowShown="0">
+  <autoFilter ref="A1:B85" xr:uid="{83C72D4E-1636-49AF-AFF3-6DAEBDE31235}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{83EF6C03-608F-4264-AE8B-C0CC83CE4380}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{67F07717-D943-427A-9144-5059F06296DD}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C45AF1E-E72D-4180-AEA3-B582132E9976}" name="Table5" displayName="Table5" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{1C45AF1E-E72D-4180-AEA3-B582132E9976}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C826DAEF-3D6A-47A1-94CA-F7EB91C3BF04}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{1D5F13C4-0CBA-4202-8F14-B8D22BA589BE}" name="Names"/>
+    <tableColumn id="3" xr3:uid="{BEC912EE-5F9C-4CEE-8648-737BC8281586}" name="Value type"/>
+    <tableColumn id="4" xr3:uid="{BDB78D78-08B0-45C3-9352-B845C3257F36}" name="Value length"/>
+    <tableColumn id="5" xr3:uid="{88428C45-3C16-4CFB-8BC5-4BAE1404AFBC}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1886,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5909,4 +6524,987 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1CDBE-C0EB-4B6C-9F42-C99DC257B084}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>529</v>
+      </c>
+      <c r="B25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>545</v>
+      </c>
+      <c r="B33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>555</v>
+      </c>
+      <c r="B38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>557</v>
+      </c>
+      <c r="B39" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>559</v>
+      </c>
+      <c r="B40" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>565</v>
+      </c>
+      <c r="B43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>567</v>
+      </c>
+      <c r="B44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B46" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>573</v>
+      </c>
+      <c r="B47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>575</v>
+      </c>
+      <c r="B48" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>577</v>
+      </c>
+      <c r="B49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>579</v>
+      </c>
+      <c r="B50" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>581</v>
+      </c>
+      <c r="B51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>583</v>
+      </c>
+      <c r="B52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B53" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>587</v>
+      </c>
+      <c r="B54" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>589</v>
+      </c>
+      <c r="B55" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>591</v>
+      </c>
+      <c r="B56" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>593</v>
+      </c>
+      <c r="B57" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>597</v>
+      </c>
+      <c r="B59" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>599</v>
+      </c>
+      <c r="B60" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>603</v>
+      </c>
+      <c r="B62" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>605</v>
+      </c>
+      <c r="B63" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>607</v>
+      </c>
+      <c r="B64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>609</v>
+      </c>
+      <c r="B65" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>611</v>
+      </c>
+      <c r="B66" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>613</v>
+      </c>
+      <c r="B67" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>615</v>
+      </c>
+      <c r="B68" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>617</v>
+      </c>
+      <c r="B69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>619</v>
+      </c>
+      <c r="B70" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>621</v>
+      </c>
+      <c r="B71" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>623</v>
+      </c>
+      <c r="B72" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>625</v>
+      </c>
+      <c r="B73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>627</v>
+      </c>
+      <c r="B74" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>629</v>
+      </c>
+      <c r="B75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>631</v>
+      </c>
+      <c r="B76" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>633</v>
+      </c>
+      <c r="B77" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>635</v>
+      </c>
+      <c r="B78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>637</v>
+      </c>
+      <c r="B79" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>639</v>
+      </c>
+      <c r="B80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>641</v>
+      </c>
+      <c r="B81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>643</v>
+      </c>
+      <c r="B82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>647</v>
+      </c>
+      <c r="B84" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>649</v>
+      </c>
+      <c r="B85" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABAB8-9F16-4C85-958F-9BD932FA0E18}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>670</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6F19F-99F0-4259-B586-250A83D3F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D5E948-5802-4749-B280-CE6D123E3CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
@@ -2501,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D5E948-5802-4749-B280-CE6D123E3CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB92359-07FC-4990-85B0-D93989B7AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
-    <sheet name="type" sheetId="2" r:id="rId2"/>
-    <sheet name="condition" sheetId="3" r:id="rId3"/>
-    <sheet name="keywords" sheetId="4" r:id="rId4"/>
-    <sheet name="identifiers" sheetId="5" r:id="rId5"/>
+    <sheet name="attribute" sheetId="6" r:id="rId2"/>
+    <sheet name="relation" sheetId="7" r:id="rId3"/>
+    <sheet name="type" sheetId="2" r:id="rId4"/>
+    <sheet name="condition" sheetId="3" r:id="rId5"/>
+    <sheet name="keywords" sheetId="4" r:id="rId6"/>
+    <sheet name="identifiers" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="690">
   <si>
     <t>Name</t>
   </si>
@@ -2077,6 +2079,39 @@
   </si>
   <si>
     <t>company the material was obtain from</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>uncertainty_type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>sample_preparation</t>
+  </si>
+  <si>
+    <t>set_id</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>citation</t>
   </si>
 </sst>
 </file>
@@ -2150,6 +2185,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}" name="Table6" displayName="Table6" ref="A1:A10" totalsRowShown="0">
+  <autoFilter ref="A1:A10" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{63AFB5D7-0B16-4138-8D3D-3769B8DC39F9}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}" name="Table7" displayName="Table7" ref="A1:A3" totalsRowShown="0">
+  <autoFilter ref="A1:A3" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A16340DD-AE79-4E1F-A754-97F58F670DE9}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}" name="Table3" displayName="Table3" ref="A1:B7" totalsRowShown="0">
   <autoFilter ref="A1:B7" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}"/>
   <tableColumns count="2">
@@ -2160,7 +2215,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{425CF15F-35FC-474B-B4FD-24BB93CF909F}" name="Table4" displayName="Table4" ref="A1:H41" totalsRowShown="0">
   <autoFilter ref="A1:H41" xr:uid="{425CF15F-35FC-474B-B4FD-24BB93CF909F}"/>
   <tableColumns count="8">
@@ -2177,7 +2232,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83C72D4E-1636-49AF-AFF3-6DAEBDE31235}" name="Table2" displayName="Table2" ref="A1:B85" totalsRowShown="0">
   <autoFilter ref="A1:B85" xr:uid="{83C72D4E-1636-49AF-AFF3-6DAEBDE31235}"/>
   <tableColumns count="2">
@@ -2188,7 +2243,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C45AF1E-E72D-4180-AEA3-B582132E9976}" name="Table5" displayName="Table5" ref="A1:E15" totalsRowShown="0">
   <autoFilter ref="A1:E15" xr:uid="{1C45AF1E-E72D-4180-AEA3-B582132E9976}"/>
   <tableColumns count="5">
@@ -2501,7 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -5373,6 +5428,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8146C182-EEE9-4906-9657-C8B006E099EC}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70F78B9-7D64-4E4F-9B7A-0DB62848DDF8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15FBA10-6CEA-4EFA-B0E6-FE77527D1B38}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5450,7 +5611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E599D25-C0F6-47DA-A3A8-72CA36EC3683}">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -6526,7 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1CDBE-C0EB-4B6C-9F42-C99DC257B084}">
   <dimension ref="A1:B85"/>
   <sheetViews>
@@ -7229,7 +7390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABAB8-9F16-4C85-958F-9BD932FA0E18}">
   <dimension ref="A1:E15"/>
   <sheetViews>

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB92359-07FC-4990-85B0-D93989B7AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81FBA3-BEE3-4849-AE4C-612113D7A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="689">
   <si>
     <t>Name</t>
   </si>
@@ -2094,9 +2094,6 @@
   </si>
   <si>
     <t>structure</t>
-  </si>
-  <si>
-    <t>sample_preparation</t>
   </si>
   <si>
     <t>set_id</t>
@@ -2118,10 +2115,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2144,13 +2149,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2185,8 +2193,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}" name="Table6" displayName="Table6" ref="A1:A10" totalsRowShown="0">
-  <autoFilter ref="A1:A10" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}" name="Table6" displayName="Table6" ref="A1:A9" totalsRowShown="0">
+  <autoFilter ref="A1:A9" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{63AFB5D7-0B16-4138-8D3D-3769B8DC39F9}" name="Name"/>
   </tableColumns>
@@ -5429,66 +5437,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8146C182-EEE9-4906-9657-C8B006E099EC}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -5517,12 +5521,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81FBA3-BEE3-4849-AE4C-612113D7A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855632E-AAE5-469B-896D-B33BD29E12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -2564,9 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5439,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8146C182-EEE9-4906-9657-C8B006E099EC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855632E-AAE5-469B-896D-B33BD29E12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304700F4-7299-4484-B826-7DF6DB067B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="688">
   <si>
     <t>Name</t>
   </si>
@@ -2015,12 +2015,6 @@
     <t>bigSMILES line notation</t>
   </si>
   <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>CAS number</t>
-  </si>
-  <si>
     <t>chem_formula</t>
   </si>
   <si>
@@ -2109,6 +2103,9 @@
   </si>
   <si>
     <t>citation</t>
+  </si>
+  <si>
+    <t>chemical_id</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5454,43 +5451,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -5519,12 +5516,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -7396,8 +7393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABAB8-9F16-4C85-958F-9BD932FA0E18}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7479,7 +7476,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -7490,13 +7487,10 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -7508,12 +7502,12 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7525,12 +7519,12 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -7542,12 +7536,12 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -7559,12 +7553,12 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -7576,12 +7570,12 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -7598,7 +7592,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -7610,29 +7604,29 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>670</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>671</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>672</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>673</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -7644,12 +7638,12 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -7661,7 +7655,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304700F4-7299-4484-B826-7DF6DB067B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C37B1F0-3FF6-4985-9096-1F891C606FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="850">
   <si>
     <t>Name</t>
   </si>
@@ -2106,6 +2106,492 @@
   </si>
   <si>
     <t>chemical_id</t>
+  </si>
+  <si>
+    <t>darcy_number</t>
+  </si>
+  <si>
+    <t>['Da']</t>
+  </si>
+  <si>
+    <t>The Darcy number (Da) represents the relative effect of the permeability of the medium versus its cross-sectional area—commonly the diameter squared. K/d^2 with K being the permeability and d the diameter.</t>
+  </si>
+  <si>
+    <t>deborah_number</t>
+  </si>
+  <si>
+    <t>['De', 'Deborah']</t>
+  </si>
+  <si>
+    <t>The Deborah number is defined as the ratio of the time it takes for a material to adjust to applied stresses or deformations, and the characteristic time scale of an experiment (or a computer simulation) probing the response of the material.</t>
+  </si>
+  <si>
+    <t>invariant_degree_of_polymerization</t>
+  </si>
+  <si>
+    <t>['Nbar']</t>
+  </si>
+  <si>
+    <t>The invariant degree of polymerization describes the number of chains each polymer is interacting with. This quantified as the number of polymers inside a cube with dimensions of the averrage end-to-end distance squared. $\mathcal{\bar{N}} = \left( \frac{\rho_0}{N} Re^3 )^2$, where $ ho$ is the number densition, $N$ the degree of polymerization, and $Re$ the average end-to-end distance.</t>
+  </si>
+  <si>
+    <t>lewis_number</t>
+  </si>
+  <si>
+    <t>['Le']</t>
+  </si>
+  <si>
+    <t>The Lewis number (Le) is a dimensionless number defined as the ratio of thermal diffusivity to mass diffusivity.</t>
+  </si>
+  <si>
+    <t>particle_size</t>
+  </si>
+  <si>
+    <t>particle size of material measured as diameter of particles</t>
+  </si>
+  <si>
+    <t>peclet_number</t>
+  </si>
+  <si>
+    <t>['Pe']</t>
+  </si>
+  <si>
+    <t>It is defined to be the ratio of the rate of advection of a physical quantity by the flow to the rate of diffusion of the same quantity driven by an appropriate gradient. In the context of species or mass transfer, the Péclet number is the product of the Reynolds number and the Schmidt number (Re × Sc). In the context of the thermal fluids, the thermal Péclet number is equivalent to the product of the Reynolds number and the Prandtl number (Re × Pr).</t>
+  </si>
+  <si>
+    <t>peel_number</t>
+  </si>
+  <si>
+    <t>['Np']</t>
+  </si>
+  <si>
+    <t>The peel number is the ration of restoring forces over adhesive forces in adhesion studies with a substrate.</t>
+  </si>
+  <si>
+    <t>schmidt_number</t>
+  </si>
+  <si>
+    <t>['Sc']</t>
+  </si>
+  <si>
+    <t>Schmidt number (Sc) is a dimensionless number defined as the ratio of momentum diffusivity (kinematic viscosity) and mass diffusivity.</t>
+  </si>
+  <si>
+    <t>solubility</t>
+  </si>
+  <si>
+    <t>solubility_coefficient_mass</t>
+  </si>
+  <si>
+    <t>['gas solubility coefficient', 'vapor solubility coefficient', 'solubility coefficient mass']</t>
+  </si>
+  <si>
+    <t>m**3/ (m**3 * Pa)</t>
+  </si>
+  <si>
+    <t>solubility coefficient mass</t>
+  </si>
+  <si>
+    <t>solubility_coefficient_volume</t>
+  </si>
+  <si>
+    <t>['gas solubility coefficient', 'solubility coefficient volume']</t>
+  </si>
+  <si>
+    <t>gas solubility coefficient</t>
+  </si>
+  <si>
+    <t>strain_failure</t>
+  </si>
+  <si>
+    <t>['strain fracture']</t>
+  </si>
+  <si>
+    <t>The maximum strain that a material can withstand while being stressed.</t>
+  </si>
+  <si>
+    <t>strain_ultimate</t>
+  </si>
+  <si>
+    <t>['strain ultimate']</t>
+  </si>
+  <si>
+    <t>The strain at which the material reaches ultimate stress.</t>
+  </si>
+  <si>
+    <t>strain_yield</t>
+  </si>
+  <si>
+    <t>['strain yield']</t>
+  </si>
+  <si>
+    <t>The strain at which the material beings to yield.</t>
+  </si>
+  <si>
+    <t>strength_tear</t>
+  </si>
+  <si>
+    <t>['tear strength']</t>
+  </si>
+  <si>
+    <t>kilogram / second ** 2</t>
+  </si>
+  <si>
+    <t>N/m</t>
+  </si>
+  <si>
+    <t>maximum force registered on the testing machine and the average thickness of the specimen</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>['stress', 'strength']</t>
+  </si>
+  <si>
+    <t>(check other stress options before using) force applied at given some condition</t>
+  </si>
+  <si>
+    <t>stress_auto_correlation</t>
+  </si>
+  <si>
+    <t>['stress auto correlation']</t>
+  </si>
+  <si>
+    <t>stress_failure</t>
+  </si>
+  <si>
+    <t>['fracture stress', 'failure stress', 'strength failure']</t>
+  </si>
+  <si>
+    <t>force applied at when material fractures</t>
+  </si>
+  <si>
+    <t>stress_ultimate</t>
+  </si>
+  <si>
+    <t>['ultimate stress', 'ultimate strength']</t>
+  </si>
+  <si>
+    <t>the maximum stress that a material can withstand under an applied force</t>
+  </si>
+  <si>
+    <t>stress_yield</t>
+  </si>
+  <si>
+    <t>['yield stress', 'yield strength']</t>
+  </si>
+  <si>
+    <t>force applied at yield divide by cross-sectional area</t>
+  </si>
+  <si>
+    <t>['identifier', 'identity', 'structure']</t>
+  </si>
+  <si>
+    <t>data that provides information about the structure but doesn't result in a specific property</t>
+  </si>
+  <si>
+    <t>structure_factor</t>
+  </si>
+  <si>
+    <t>['structure factor', 'msd']</t>
+  </si>
+  <si>
+    <t>structure_factor_chain</t>
+  </si>
+  <si>
+    <t>structure factor for single chain</t>
+  </si>
+  <si>
+    <t>surface_tension</t>
+  </si>
+  <si>
+    <t>J/m**2</t>
+  </si>
+  <si>
+    <t>The tension formed on the surface of a liquid</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>human sensation of flavor</t>
+  </si>
+  <si>
+    <t>temp_autoignition</t>
+  </si>
+  <si>
+    <t>['autoignition point', 'autoignition temperature', 'kindling point']</t>
+  </si>
+  <si>
+    <t>The temperature where a chemical ca spontaneously ignite</t>
+  </si>
+  <si>
+    <t>temp_boiling</t>
+  </si>
+  <si>
+    <t>temp_ceiling</t>
+  </si>
+  <si>
+    <t>ceiling temperature; temperature where polymerization and depolymeration rates are equal</t>
+  </si>
+  <si>
+    <t>temp_cloud</t>
+  </si>
+  <si>
+    <t>the temperature at which phase separation starts</t>
+  </si>
+  <si>
+    <t>temp_crystal</t>
+  </si>
+  <si>
+    <t>temperature where a crystals start to form</t>
+  </si>
+  <si>
+    <t>temp_degrade</t>
+  </si>
+  <si>
+    <t>degradation temperature</t>
+  </si>
+  <si>
+    <t>temp_flash</t>
+  </si>
+  <si>
+    <t>The temperature where vapors from a volatile material can ignite</t>
+  </si>
+  <si>
+    <t>temp_glass</t>
+  </si>
+  <si>
+    <t>['glass transition temperature']</t>
+  </si>
+  <si>
+    <t>The transition temperature where a substances turns into a glass; vitrification.</t>
+  </si>
+  <si>
+    <t>temp_melt</t>
+  </si>
+  <si>
+    <t>['melting point', 'melting temperature', 'tm']</t>
+  </si>
+  <si>
+    <t>temperature where a solid turns into a liquid</t>
+  </si>
+  <si>
+    <t>thermal_conductivity</t>
+  </si>
+  <si>
+    <t>['specific thermal conductivity']</t>
+  </si>
+  <si>
+    <t>kelvin / meter / second</t>
+  </si>
+  <si>
+    <t>W/m/k</t>
+  </si>
+  <si>
+    <t>Measure of a materials ability to conduct heat</t>
+  </si>
+  <si>
+    <t>thermal_expand_area</t>
+  </si>
+  <si>
+    <t>['volumetric thermal expansion']</t>
+  </si>
+  <si>
+    <t>1 / kelvin</t>
+  </si>
+  <si>
+    <t>A change in area in response to a change in temperature (not including phase transitions)</t>
+  </si>
+  <si>
+    <t>thermal_expand_linear</t>
+  </si>
+  <si>
+    <t>['linear thermal expansion']</t>
+  </si>
+  <si>
+    <t>A change in a single dimension in response to a change in temperature (not including phase transitions)</t>
+  </si>
+  <si>
+    <t>thermal_expand_volume</t>
+  </si>
+  <si>
+    <t>A change in volume in response to a change in temperature (not including phase transitions)</t>
+  </si>
+  <si>
+    <t>thermoelectric_figure_of_merit</t>
+  </si>
+  <si>
+    <t>['zT']</t>
+  </si>
+  <si>
+    <t>The thermoelectric performance (for either power generation or cooling) depends on the efficiency of the thermoelectric material for transforming heat into electricity. And is defined as zT = T S \sigma/\kappa, with T temperature, S Seebeck coefficient, \sigma electrical conductivity, and \kappa thermal conductivity.</t>
+  </si>
+  <si>
+    <t>time_relax_e</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>entanglement relaxation time, segments up to entanglement molecular weight have relaxed</t>
+  </si>
+  <si>
+    <t>time_relax_long</t>
+  </si>
+  <si>
+    <t>longest or terminal relaxation time</t>
+  </si>
+  <si>
+    <t>time_relax_seg</t>
+  </si>
+  <si>
+    <t>Time it takes a polymer segment to relax</t>
+  </si>
+  <si>
+    <t>time_reptation</t>
+  </si>
+  <si>
+    <t>reptation time</t>
+  </si>
+  <si>
+    <t>time_rouse</t>
+  </si>
+  <si>
+    <t>rouse time</t>
+  </si>
+  <si>
+    <t>toughness</t>
+  </si>
+  <si>
+    <t>J / m**3</t>
+  </si>
+  <si>
+    <t>area under the stress-strain curve or energy of mechanical deformation per unit volume prior to fracture</t>
+  </si>
+  <si>
+    <t>vapor_pres</t>
+  </si>
+  <si>
+    <t>['vapor pressure', 'equilibrium vapor pressure']</t>
+  </si>
+  <si>
+    <t>the pressure at which the vapor is in thermodynamic equilibrium with the condensed phase</t>
+  </si>
+  <si>
+    <t>vapor_pressure</t>
+  </si>
+  <si>
+    <t>virial_coef_s</t>
+  </si>
+  <si>
+    <t>meter ** 3 * mole / kilogram ** 2</t>
+  </si>
+  <si>
+    <t>cm ** 3 * mole * gram **-2</t>
+  </si>
+  <si>
+    <t>Second Virial coefficient</t>
+  </si>
+  <si>
+    <t>virial_coef_t</t>
+  </si>
+  <si>
+    <t>Third Virial coefficient</t>
+  </si>
+  <si>
+    <t>virial_coefficient_s</t>
+  </si>
+  <si>
+    <t>virial_coefficient_t</t>
+  </si>
+  <si>
+    <t>viscosity_dynamic</t>
+  </si>
+  <si>
+    <t>['viscosity', 'absolute viscosity']</t>
+  </si>
+  <si>
+    <t>kilogram / meter / second</t>
+  </si>
+  <si>
+    <t>Pa*s</t>
+  </si>
+  <si>
+    <t>the resistance to movement of a fluid</t>
+  </si>
+  <si>
+    <t>viscosity_intrinsic</t>
+  </si>
+  <si>
+    <t>['viscosity']</t>
+  </si>
+  <si>
+    <t>dL/g</t>
+  </si>
+  <si>
+    <t>A measure of a solute contribution to the viscosity of a solution</t>
+  </si>
+  <si>
+    <t>viscosity_kinematic</t>
+  </si>
+  <si>
+    <t>['viscosity', 'momentum diffusivity']</t>
+  </si>
+  <si>
+    <t>cSt</t>
+  </si>
+  <si>
+    <t>the dynamic viscosity over the density of the fluid</t>
+  </si>
+  <si>
+    <t>weissenberg_number</t>
+  </si>
+  <si>
+    <t>['Wi', 'Weissenberg']</t>
+  </si>
+  <si>
+    <t>The dimensionless Weissenberg number relates elastic forces with viscous forces and is usually defined as the shear rate times the relaxation time.</t>
+  </si>
+  <si>
+    <t>flow_rate</t>
+  </si>
+  <si>
+    <t>meter ** 3 / second</t>
+  </si>
+  <si>
+    <t>mL/min</t>
+  </si>
+  <si>
+    <t>Flow rate of a gas or liquid</t>
+  </si>
+  <si>
+    <t>residence_time</t>
+  </si>
+  <si>
+    <t>The time required to pass from the entrance to exit of a reactor, column or instrument. Further specify gas, liquid, polymer (for extrusion), etc in the descriptor</t>
+  </si>
+  <si>
+    <t>associative_network</t>
+  </si>
+  <si>
+    <t>reversibly crosslinked network polymers</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>crosslinked polymeric material</t>
+  </si>
+  <si>
+    <t>hydrogel</t>
+  </si>
+  <si>
+    <t>water swollen crosslinked polymeric material</t>
+  </si>
+  <si>
+    <t>Chemical ID</t>
   </si>
 </sst>
 </file>
@@ -2172,18 +2658,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EF93DBD-3735-429C-99E3-84C55BE42DDC}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
-  <autoFilter ref="A1:I101" xr:uid="{4EF93DBD-3735-429C-99E3-84C55BE42DDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E6D215DC-BEC3-4705-9EAD-01D60FE88884}" name="Table8" displayName="Table8" ref="A1:I156" totalsRowShown="0">
+  <autoFilter ref="A1:I156" xr:uid="{E6D215DC-BEC3-4705-9EAD-01D60FE88884}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16C60E01-2EA2-4FE5-8FB8-1EE9CD7FBBE1}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7AF3995D-8FE9-4F45-A360-62D1A4C1B47C}" name="Names"/>
-    <tableColumn id="3" xr3:uid="{9079FD66-B373-476C-BC71-23D5EE463D16}" name="Value type"/>
-    <tableColumn id="4" xr3:uid="{BA702E63-FF2B-4789-BD1A-851E37C3F071}" name="Value length"/>
-    <tableColumn id="5" xr3:uid="{ABED804C-E719-4998-BF9B-D4F1B9220347}" name="Range"/>
-    <tableColumn id="6" xr3:uid="{25D87C7A-9142-480E-8CFF-AB15D8ED2FC2}" name="SI unit"/>
-    <tableColumn id="7" xr3:uid="{2C6B1685-5FE9-4075-A480-0F3F9B8B6117}" name="Preferred unit"/>
-    <tableColumn id="8" xr3:uid="{5DFBE989-CBCE-4C39-98B6-3C916CB30FD8}" name="Methods"/>
-    <tableColumn id="9" xr3:uid="{85FB9466-F949-4D4F-8C21-668ADD204BF5}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{3880B9FD-F3CA-4C48-890F-7D4B168B8A25}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{23467566-F6AB-4E90-BF2C-00F7179B76BF}" name="Names"/>
+    <tableColumn id="3" xr3:uid="{635BAB3C-F055-4F9C-B2E5-36BD723FC464}" name="Value type"/>
+    <tableColumn id="4" xr3:uid="{7C575669-A28E-45C6-AD60-BA66AF0B6AE3}" name="Value length"/>
+    <tableColumn id="5" xr3:uid="{6673E275-E8FD-46A5-BDE3-556F9F5B05F3}" name="Range"/>
+    <tableColumn id="6" xr3:uid="{7F7AC9E1-5037-4BCF-A97E-F73DF9D0D7A7}" name="SI unit"/>
+    <tableColumn id="7" xr3:uid="{3BD3A391-EC9C-47AB-8D49-163459D0794E}" name="Preferred unit"/>
+    <tableColumn id="8" xr3:uid="{64071822-B965-403B-A8B8-8DCD4C06FC6C}" name="Methods"/>
+    <tableColumn id="9" xr3:uid="{E56E1CE8-3710-4B34-8C97-4D705A939389}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2221,42 +2707,42 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{425CF15F-35FC-474B-B4FD-24BB93CF909F}" name="Table4" displayName="Table4" ref="A1:H41" totalsRowShown="0">
-  <autoFilter ref="A1:H41" xr:uid="{425CF15F-35FC-474B-B4FD-24BB93CF909F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}" name="Table9" displayName="Table9" ref="A1:H46" totalsRowShown="0">
+  <autoFilter ref="A1:H46" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{02F03C05-4EC2-4D9D-9977-89445DDBA436}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{31286587-FED7-4A4A-8C66-F95133067AC7}" name="Names"/>
-    <tableColumn id="3" xr3:uid="{79DBC886-339E-449C-BB5D-12A59854EAAD}" name="Value type"/>
-    <tableColumn id="4" xr3:uid="{E08D43B2-3421-4017-AA56-E39236D52764}" name="Value length"/>
-    <tableColumn id="5" xr3:uid="{12B5737B-D8D3-4667-B59A-FB4E4077BC8A}" name="Range"/>
-    <tableColumn id="6" xr3:uid="{94B860CD-B72B-4A3C-9DCF-F73C2C739F80}" name="SI unit"/>
-    <tableColumn id="7" xr3:uid="{639E057E-572B-4D2F-B4CE-D19ED220DA5F}" name="Preferred unit"/>
-    <tableColumn id="8" xr3:uid="{8DF54677-4B11-4B39-8B73-4C3EE52B7A77}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{EC60CECE-005C-43FC-9382-5A19737DBCD3}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{941FADD3-8126-41A1-8987-65FD68C0BF4D}" name="Names"/>
+    <tableColumn id="3" xr3:uid="{28AAB7DB-2A37-4B64-B23B-386600360F2A}" name="Value type"/>
+    <tableColumn id="4" xr3:uid="{F6DE67E6-AE6F-43AC-94AA-2EB39C64E3CE}" name="Value length"/>
+    <tableColumn id="5" xr3:uid="{61CECEC0-FBCA-4903-9431-916D98374A15}" name="Range"/>
+    <tableColumn id="6" xr3:uid="{E5765994-EE17-4861-8755-0E1D5DAF2FA0}" name="SI unit"/>
+    <tableColumn id="7" xr3:uid="{A8CF92F6-9876-4824-837A-28B1433233E1}" name="Preferred unit"/>
+    <tableColumn id="8" xr3:uid="{737452A5-663C-443D-905E-947A416C0B85}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83C72D4E-1636-49AF-AFF3-6DAEBDE31235}" name="Table2" displayName="Table2" ref="A1:B85" totalsRowShown="0">
-  <autoFilter ref="A1:B85" xr:uid="{83C72D4E-1636-49AF-AFF3-6DAEBDE31235}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}" name="Table10" displayName="Table10" ref="A1:B88" totalsRowShown="0">
+  <autoFilter ref="A1:B88" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{83EF6C03-608F-4264-AE8B-C0CC83CE4380}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{67F07717-D943-427A-9144-5059F06296DD}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{B91EA429-C1A7-4205-82CB-B48CD4BE9D47}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{DEB532F3-F235-4C93-A7D3-50B78EA0F862}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C45AF1E-E72D-4180-AEA3-B582132E9976}" name="Table5" displayName="Table5" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15" xr:uid="{1C45AF1E-E72D-4180-AEA3-B582132E9976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}" name="Table11" displayName="Table11" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C826DAEF-3D6A-47A1-94CA-F7EB91C3BF04}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{1D5F13C4-0CBA-4202-8F14-B8D22BA589BE}" name="Names"/>
-    <tableColumn id="3" xr3:uid="{BEC912EE-5F9C-4CEE-8648-737BC8281586}" name="Value type"/>
-    <tableColumn id="4" xr3:uid="{BDB78D78-08B0-45C3-9352-B845C3257F36}" name="Value length"/>
-    <tableColumn id="5" xr3:uid="{88428C45-3C16-4CFB-8BC5-4BAE1404AFBC}" name="Description"/>
+    <tableColumn id="1" xr3:uid="{1C2ED2F5-F7ED-46EA-A454-6846818AFA49}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{03540D38-C293-4023-AFF9-36DB43B4732B}" name="Names"/>
+    <tableColumn id="3" xr3:uid="{04D8C107-B16D-4EBF-A286-EAE139F41E6B}" name="Value type"/>
+    <tableColumn id="4" xr3:uid="{79C832A8-7FB5-4BD2-B5E5-35AD390676B1}" name="Value length"/>
+    <tableColumn id="5" xr3:uid="{D945076E-867F-4FAB-A41E-49D5474C3325}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2559,21 +3045,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="153.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3160,10 +3648,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>689</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -3172,27 +3660,24 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>691</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>692</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -3201,21 +3686,24 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -3236,15 +3724,15 @@
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -3253,27 +3741,21 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3282,27 +3764,27 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -3311,24 +3793,24 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -3340,27 +3822,27 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -3372,24 +3854,24 @@
         <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -3401,24 +3883,24 @@
         <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -3430,24 +3912,24 @@
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -3465,18 +3947,18 @@
         <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -3488,24 +3970,24 @@
         <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -3517,24 +3999,24 @@
         <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -3546,21 +4028,21 @@
         <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -3575,10 +4057,10 @@
         <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -3589,10 +4071,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -3604,24 +4086,24 @@
         <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -3633,24 +4115,24 @@
         <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -3662,24 +4144,24 @@
         <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -3691,24 +4173,24 @@
         <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -3720,24 +4202,24 @@
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -3746,27 +4228,27 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>694</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>695</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -3777,22 +4259,19 @@
       <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>156</v>
+        <v>696</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -3804,27 +4283,27 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -3835,16 +4314,22 @@
       <c r="E45" t="s">
         <v>13</v>
       </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>153</v>
+      </c>
       <c r="H45" t="s">
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -3856,24 +4341,24 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -3885,27 +4370,27 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>697</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>698</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -3914,10 +4399,7 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -3926,15 +4408,15 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>165</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -3949,12 +4431,12 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -3966,47 +4448,56 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
         <v>163</v>
       </c>
       <c r="G50" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" t="s">
+        <v>168</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -4015,56 +4506,50 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -4073,27 +4558,27 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
@@ -4104,83 +4589,74 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
       <c r="H55" t="s">
         <v>12</v>
-      </c>
-      <c r="I55" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -4189,85 +4665,85 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -4279,24 +4755,24 @@
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="G61" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -4308,24 +4784,24 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -4337,21 +4813,21 @@
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -4365,19 +4841,25 @@
       <c r="E64" t="s">
         <v>13</v>
       </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>206</v>
+      </c>
       <c r="H64" t="s">
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -4386,24 +4868,24 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="H65" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
@@ -4415,27 +4897,27 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -4453,18 +4935,18 @@
         <v>215</v>
       </c>
       <c r="H67" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -4475,25 +4957,19 @@
       <c r="E68" t="s">
         <v>13</v>
       </c>
-      <c r="F68" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" t="s">
-        <v>215</v>
-      </c>
       <c r="H68" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -4502,27 +4978,27 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="F69" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
         <v>222</v>
       </c>
       <c r="I69" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -4531,27 +5007,27 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G70" t="s">
         <v>215</v>
       </c>
       <c r="H70" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -4569,18 +5045,18 @@
         <v>215</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="I71" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -4598,18 +5074,18 @@
         <v>215</v>
       </c>
       <c r="H72" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I72" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -4627,18 +5103,18 @@
         <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="I73" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -4656,47 +5132,47 @@
         <v>215</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I74" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I75" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -4708,24 +5184,24 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I76" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -4737,24 +5213,24 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I77" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -4766,53 +5242,53 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I78" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -4824,24 +5300,24 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="G80" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -4850,21 +5326,27 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>187</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -4876,24 +5358,24 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>275</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -4902,27 +5384,27 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F83" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -4934,24 +5416,24 @@
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="G84" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -4960,24 +5442,18 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>289</v>
-      </c>
-      <c r="G85" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>700</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
@@ -4989,39 +5465,36 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>293</v>
+        <v>701</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>294</v>
+        <v>702</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>703</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -5030,15 +5503,15 @@
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>296</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>297</v>
+        <v>705</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>706</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -5047,10 +5520,7 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
@@ -5059,15 +5529,15 @@
         <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>298</v>
+        <v>707</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -5076,27 +5546,27 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -5105,50 +5575,56 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>285</v>
+      </c>
+      <c r="G91" t="s">
+        <v>286</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -5160,24 +5636,24 @@
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="G92" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -5186,53 +5662,53 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
@@ -5244,24 +5720,24 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
@@ -5273,24 +5749,24 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -5302,50 +5778,50 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
         <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -5357,24 +5833,24 @@
         <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H99" t="s">
         <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -5383,42 +5859,1577 @@
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100" t="s">
+        <v>187</v>
       </c>
       <c r="H100" t="s">
         <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>312</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>313</v>
+      </c>
+      <c r="G101" t="s">
+        <v>314</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>317</v>
+      </c>
+      <c r="G102" t="s">
+        <v>318</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>317</v>
+      </c>
+      <c r="G103" t="s">
+        <v>318</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>323</v>
+      </c>
+      <c r="G104" t="s">
+        <v>324</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>328</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>336</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B108" t="s">
         <v>337</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
         <v>338</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G108" t="s">
         <v>339</v>
       </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>708</v>
+      </c>
+      <c r="B109" t="s">
+        <v>709</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>711</v>
+      </c>
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>712</v>
+      </c>
+      <c r="B111" t="s">
+        <v>713</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>147</v>
+      </c>
+      <c r="G111" t="s">
+        <v>714</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>716</v>
+      </c>
+      <c r="B112" t="s">
+        <v>717</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>714</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>719</v>
+      </c>
+      <c r="B113" t="s">
+        <v>720</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>221</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>722</v>
+      </c>
+      <c r="B114" t="s">
+        <v>723</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>725</v>
+      </c>
+      <c r="B115" t="s">
+        <v>726</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>221</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>728</v>
+      </c>
+      <c r="B116" t="s">
+        <v>729</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>730</v>
+      </c>
+      <c r="G116" t="s">
+        <v>731</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>733</v>
+      </c>
+      <c r="B117" t="s">
+        <v>734</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>736</v>
+      </c>
+      <c r="B118" t="s">
+        <v>737</v>
+      </c>
+      <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>738</v>
+      </c>
+      <c r="B119" t="s">
+        <v>739</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s">
+        <v>203</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>741</v>
+      </c>
+      <c r="B120" t="s">
+        <v>742</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s">
+        <v>203</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>744</v>
+      </c>
+      <c r="B121" t="s">
+        <v>745</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
+        <v>203</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>681</v>
+      </c>
+      <c r="B122" t="s">
+        <v>747</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>749</v>
+      </c>
+      <c r="B123" t="s">
+        <v>750</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>751</v>
+      </c>
+      <c r="B124" t="s">
+        <v>750</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>753</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>730</v>
+      </c>
+      <c r="G125" t="s">
+        <v>754</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>756</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>758</v>
+      </c>
+      <c r="B127" t="s">
+        <v>759</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>456</v>
+      </c>
+      <c r="G127" t="s">
+        <v>457</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>761</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>456</v>
+      </c>
+      <c r="G128" t="s">
+        <v>457</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>762</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>456</v>
+      </c>
+      <c r="G129" t="s">
+        <v>457</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>764</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>456</v>
+      </c>
+      <c r="G130" t="s">
+        <v>457</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>766</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>456</v>
+      </c>
+      <c r="G131" t="s">
+        <v>457</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>768</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>456</v>
+      </c>
+      <c r="G132" t="s">
+        <v>457</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>770</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>456</v>
+      </c>
+      <c r="G133" t="s">
+        <v>457</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>772</v>
+      </c>
+      <c r="B134" t="s">
+        <v>773</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>456</v>
+      </c>
+      <c r="G134" t="s">
+        <v>457</v>
+      </c>
+      <c r="H134" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>775</v>
+      </c>
+      <c r="B135" t="s">
+        <v>776</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>456</v>
+      </c>
+      <c r="G135" t="s">
+        <v>457</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>778</v>
+      </c>
+      <c r="B136" t="s">
+        <v>779</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" t="s">
+        <v>780</v>
+      </c>
+      <c r="G136" t="s">
+        <v>781</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>783</v>
+      </c>
+      <c r="B137" t="s">
+        <v>784</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" t="s">
+        <v>785</v>
+      </c>
+      <c r="G137" t="s">
+        <v>785</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>787</v>
+      </c>
+      <c r="B138" t="s">
+        <v>788</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>102</v>
+      </c>
+      <c r="F138" t="s">
+        <v>785</v>
+      </c>
+      <c r="G138" t="s">
+        <v>785</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>790</v>
+      </c>
+      <c r="B139" t="s">
+        <v>784</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" t="s">
+        <v>785</v>
+      </c>
+      <c r="G139" t="s">
+        <v>785</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>792</v>
+      </c>
+      <c r="B140" t="s">
+        <v>793</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>795</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>796</v>
+      </c>
+      <c r="G141" t="s">
+        <v>796</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>798</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>796</v>
+      </c>
+      <c r="G142" t="s">
+        <v>796</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>800</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>796</v>
+      </c>
+      <c r="G143" t="s">
+        <v>796</v>
+      </c>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>802</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>796</v>
+      </c>
+      <c r="G144" t="s">
+        <v>796</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>804</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>796</v>
+      </c>
+      <c r="G145" t="s">
+        <v>796</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>806</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
+        <v>807</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>809</v>
+      </c>
+      <c r="B147" t="s">
+        <v>810</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s">
+        <v>424</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>812</v>
+      </c>
+      <c r="B148" t="s">
+        <v>810</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
+        <v>424</v>
+      </c>
+      <c r="H148" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>813</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>814</v>
+      </c>
+      <c r="G149" t="s">
+        <v>815</v>
+      </c>
+      <c r="H149" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>817</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>814</v>
+      </c>
+      <c r="G150" t="s">
+        <v>815</v>
+      </c>
+      <c r="H150" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>819</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>814</v>
+      </c>
+      <c r="G151" t="s">
+        <v>815</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>820</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>814</v>
+      </c>
+      <c r="G152" t="s">
+        <v>815</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>821</v>
+      </c>
+      <c r="B153" t="s">
+        <v>822</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>823</v>
+      </c>
+      <c r="G153" t="s">
+        <v>824</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>826</v>
+      </c>
+      <c r="B154" t="s">
+        <v>827</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>163</v>
+      </c>
+      <c r="G154" t="s">
+        <v>828</v>
+      </c>
+      <c r="H154" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>830</v>
+      </c>
+      <c r="B155" t="s">
+        <v>831</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>98</v>
+      </c>
+      <c r="G155" t="s">
+        <v>832</v>
+      </c>
+      <c r="H155" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>834</v>
+      </c>
+      <c r="B156" t="s">
+        <v>835</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -5537,7 +7548,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,22 +7623,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E599D25-C0F6-47DA-A3A8-72CA36EC3683}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5840,10 +7851,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>691</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>692</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -5852,24 +7863,21 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
-        <v>379</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -5878,24 +7886,24 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
         <v>379</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -5907,21 +7915,21 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>837</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -5933,18 +7941,18 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>838</v>
       </c>
       <c r="G12" t="s">
-        <v>375</v>
+        <v>839</v>
       </c>
       <c r="H12" t="s">
-        <v>391</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -5959,21 +7967,21 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H13" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -5985,18 +7993,18 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="H14" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -6011,18 +8019,18 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G15" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -6037,44 +8045,44 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
       <c r="H16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>398</v>
       </c>
       <c r="H17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -6089,30 +8097,30 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>408</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -6121,18 +8129,18 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -6141,21 +8149,21 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>407</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>408</v>
       </c>
       <c r="H20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -6164,21 +8172,27 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>416</v>
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -6187,21 +8201,21 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>420</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>702</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>703</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -6212,22 +8226,19 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
       <c r="G23" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>425</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -6236,21 +8247,15 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G24" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H24" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -6265,21 +8270,21 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>419</v>
       </c>
       <c r="G25" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H25" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -6291,21 +8296,21 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H26" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>427</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -6317,18 +8322,18 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>428</v>
       </c>
       <c r="G27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -6343,64 +8348,70 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H28" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>432</v>
       </c>
       <c r="H29" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="H30" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -6415,70 +8426,64 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="G31" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>447</v>
-      </c>
-      <c r="G32" t="s">
-        <v>447</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>453</v>
+        <v>841</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -6492,16 +8497,22 @@
       <c r="E34" t="s">
         <v>13</v>
       </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>466</v>
+      </c>
       <c r="H34" t="s">
-        <v>453</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -6513,21 +8524,21 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="G35" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="H35" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -6539,21 +8550,21 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="H36" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -6568,18 +8579,18 @@
         <v>275</v>
       </c>
       <c r="G37" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="H37" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -6590,22 +8601,16 @@
       <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F38" t="s">
-        <v>275</v>
-      </c>
-      <c r="G38" t="s">
-        <v>466</v>
-      </c>
       <c r="H38" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -6617,21 +8622,21 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>456</v>
       </c>
       <c r="G39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="H39" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B40" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -6643,39 +8648,166 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G40" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="H40" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>464</v>
+      </c>
+      <c r="B41" t="s">
+        <v>465</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" t="s">
+        <v>466</v>
+      </c>
+      <c r="H41" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>468</v>
+      </c>
+      <c r="B42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" t="s">
+        <v>466</v>
+      </c>
+      <c r="H42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B43" t="s">
+        <v>472</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" t="s">
+        <v>466</v>
+      </c>
+      <c r="H43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>476</v>
+      </c>
+      <c r="G44" t="s">
+        <v>477</v>
+      </c>
+      <c r="H44" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>478</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>479</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
         <v>480</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G45" t="s">
         <v>481</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H45" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>834</v>
+      </c>
+      <c r="B46" t="s">
+        <v>835</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -6688,11 +8820,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1CDBE-C0EB-4B6C-9F42-C99DC257B084}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6742,641 +8872,665 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>843</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>535</v>
+        <v>845</v>
       </c>
       <c r="B28" t="s">
-        <v>536</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B30" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>847</v>
       </c>
       <c r="B31" t="s">
-        <v>542</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B32" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B33" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B34" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B35" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B37" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B38" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B39" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B40" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B42" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B43" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B44" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B45" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B46" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B47" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B48" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B49" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B50" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B51" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B52" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B53" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B54" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B56" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B58" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B59" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B60" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B61" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B62" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B63" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B64" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B65" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B66" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B67" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B68" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B69" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B70" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B71" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B72" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B73" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B74" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B75" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B76" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B77" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B78" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B79" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B80" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B81" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B82" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B83" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B84" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>643</v>
+      </c>
+      <c r="B85" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>645</v>
+      </c>
+      <c r="B86" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>647</v>
+      </c>
+      <c r="B87" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>649</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>650</v>
       </c>
     </row>
@@ -7393,8 +9547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABAB8-9F16-4C85-958F-9BD932FA0E18}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7476,7 +9630,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -7487,10 +9641,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -7502,12 +9659,12 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7519,7 +9676,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>660</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C37B1F0-3FF6-4985-9096-1F891C606FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F52B380-5FA4-4D0C-99B1-30C8437DA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="851">
   <si>
     <t>Name</t>
   </si>
@@ -2592,13 +2592,16 @@
   </si>
   <si>
     <t>Chemical ID</t>
+  </si>
+  <si>
+    <t>Attributes for Excel Uploader that do not exist in CRIPT controlled vocabulary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2614,16 +2617,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2631,16 +2663,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2658,8 +2726,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E6D215DC-BEC3-4705-9EAD-01D60FE88884}" name="Table8" displayName="Table8" ref="A1:I156" totalsRowShown="0">
-  <autoFilter ref="A1:I156" xr:uid="{E6D215DC-BEC3-4705-9EAD-01D60FE88884}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E6D215DC-BEC3-4705-9EAD-01D60FE88884}" name="Table8" displayName="Table8" ref="A2:I157" totalsRowShown="0">
+  <autoFilter ref="A2:I157" xr:uid="{E6D215DC-BEC3-4705-9EAD-01D60FE88884}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3880B9FD-F3CA-4C48-890F-7D4B168B8A25}" name="Name"/>
     <tableColumn id="2" xr3:uid="{23467566-F6AB-4E90-BF2C-00F7179B76BF}" name="Names"/>
@@ -2676,8 +2744,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}" name="Table6" displayName="Table6" ref="A1:A9" totalsRowShown="0">
-  <autoFilter ref="A1:A9" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}" name="Table6" displayName="Table6" ref="A2:A10" totalsRowShown="0">
+  <autoFilter ref="A2:A10" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{63AFB5D7-0B16-4138-8D3D-3769B8DC39F9}" name="Name"/>
   </tableColumns>
@@ -2686,8 +2754,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}" name="Table7" displayName="Table7" ref="A1:A3" totalsRowShown="0">
-  <autoFilter ref="A1:A3" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}" name="Table7" displayName="Table7" ref="A2:A4" totalsRowShown="0">
+  <autoFilter ref="A2:A4" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A16340DD-AE79-4E1F-A754-97F58F670DE9}" name="Name"/>
   </tableColumns>
@@ -2696,8 +2764,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}" name="Table3" displayName="Table3" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0">
+  <autoFilter ref="A2:B8" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B4C3820E-66FD-4DE9-98EA-529928636C0B}" name="Name"/>
     <tableColumn id="2" xr3:uid="{287885DD-1888-487A-98C6-9371EBDB0980}" name="Description"/>
@@ -2707,8 +2775,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}" name="Table9" displayName="Table9" ref="A1:H46" totalsRowShown="0">
-  <autoFilter ref="A1:H46" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}" name="Table9" displayName="Table9" ref="A2:H47" totalsRowShown="0">
+  <autoFilter ref="A2:H47" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EC60CECE-005C-43FC-9382-5A19737DBCD3}" name="Name"/>
     <tableColumn id="2" xr3:uid="{941FADD3-8126-41A1-8987-65FD68C0BF4D}" name="Names"/>
@@ -2724,8 +2792,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}" name="Table10" displayName="Table10" ref="A1:B88" totalsRowShown="0">
-  <autoFilter ref="A1:B88" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}" name="Table10" displayName="Table10" ref="A2:B89" totalsRowShown="0">
+  <autoFilter ref="A2:B89" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B91EA429-C1A7-4205-82CB-B48CD4BE9D47}" name="Name"/>
     <tableColumn id="2" xr3:uid="{DEB532F3-F235-4C93-A7D3-50B78EA0F862}" name="Description"/>
@@ -2735,8 +2803,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}" name="Table11" displayName="Table11" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}" name="Table11" displayName="Table11" ref="A2:E16" totalsRowShown="0">
+  <autoFilter ref="A2:E16" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1C2ED2F5-F7ED-46EA-A454-6846818AFA49}" name="Name"/>
     <tableColumn id="2" xr3:uid="{03540D38-C293-4023-AFF9-36DB43B4732B}" name="Names"/>
@@ -3045,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,70 +3132,55 @@
     <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="str">
+        <f>HYPERLINK("Material property key", "Material property key")</f>
+        <v>Material property key</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -3136,36 +3189,36 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -3177,35 +3230,44 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -3216,25 +3278,16 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="s">
         <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -3246,10 +3299,10 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -3260,48 +3313,48 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -3313,24 +3366,24 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -3342,15 +3395,15 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -3361,19 +3414,25 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -3382,27 +3441,21 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -3411,21 +3464,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -3434,27 +3493,21 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -3463,21 +3516,27 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -3486,24 +3545,18 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -3518,24 +3571,24 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -3547,24 +3600,24 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -3573,27 +3626,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -3602,24 +3655,24 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -3648,10 +3701,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>689</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -3660,24 +3713,27 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>690</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -3695,15 +3751,15 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>691</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>692</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -3712,27 +3768,24 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -3741,21 +3794,27 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3764,27 +3823,21 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -3793,27 +3846,27 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -3825,24 +3878,24 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -3851,27 +3904,27 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -3883,24 +3936,24 @@
         <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
         <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -3912,24 +3965,24 @@
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -3941,24 +3994,24 @@
         <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -3970,24 +4023,24 @@
         <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H33" t="s">
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -3999,24 +4052,24 @@
         <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -4037,15 +4090,15 @@
         <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -4057,21 +4110,21 @@
         <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -4086,10 +4139,10 @@
         <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -4100,7 +4153,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -4115,10 +4168,10 @@
         <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -4129,10 +4182,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -4144,21 +4197,21 @@
         <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>136</v>
@@ -4173,24 +4226,24 @@
         <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -4202,24 +4255,24 @@
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -4231,24 +4284,24 @@
         <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>694</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>695</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -4257,24 +4310,27 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>696</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>694</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>695</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -4283,24 +4339,21 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>151</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -4312,24 +4365,24 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -4353,12 +4406,12 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -4382,15 +4435,15 @@
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>697</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>698</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -4401,22 +4454,25 @@
       <c r="E48" t="s">
         <v>13</v>
       </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>699</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>697</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>698</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -4427,19 +4483,22 @@
       <c r="E49" t="s">
         <v>13</v>
       </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
       <c r="H49" t="s">
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -4448,24 +4507,18 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -4480,10 +4533,10 @@
         <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
@@ -4494,7 +4547,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -4509,10 +4562,10 @@
         <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -4523,7 +4576,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -4535,18 +4588,24 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -4559,12 +4618,6 @@
       </c>
       <c r="E54" t="s">
         <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54" t="s">
-        <v>173</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -4575,143 +4628,143 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" t="s">
+        <v>173</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>178</v>
-      </c>
-      <c r="G56" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -4735,44 +4788,44 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -4793,15 +4846,15 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -4813,24 +4866,24 @@
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -4845,21 +4898,21 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -4874,21 +4927,21 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -4903,18 +4956,18 @@
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -4929,21 +4982,21 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
@@ -4957,19 +5010,25 @@
       <c r="E68" t="s">
         <v>13</v>
       </c>
+      <c r="F68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" t="s">
+        <v>215</v>
+      </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -4978,27 +5037,21 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -5010,24 +5063,24 @@
         <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="I70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -5036,27 +5089,27 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G71" t="s">
         <v>215</v>
       </c>
       <c r="H71" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -5074,18 +5127,18 @@
         <v>215</v>
       </c>
       <c r="H72" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -5103,18 +5156,18 @@
         <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -5135,15 +5188,15 @@
         <v>222</v>
       </c>
       <c r="I74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -5161,18 +5214,18 @@
         <v>215</v>
       </c>
       <c r="H75" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="I75" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -5190,18 +5243,18 @@
         <v>215</v>
       </c>
       <c r="H76" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="I76" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -5219,18 +5272,18 @@
         <v>215</v>
       </c>
       <c r="H77" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="I77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -5248,76 +5301,76 @@
         <v>215</v>
       </c>
       <c r="H78" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="I78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -5329,24 +5382,24 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="G81" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -5367,15 +5420,15 @@
         <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -5384,27 +5437,27 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -5413,27 +5466,27 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -5442,21 +5495,27 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s">
+        <v>187</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -5465,27 +5524,21 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s">
-        <v>432</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>701</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B87" t="s">
-        <v>703</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -5496,22 +5549,25 @@
       <c r="E87" t="s">
         <v>13</v>
       </c>
+      <c r="F87" t="s">
+        <v>94</v>
+      </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B88" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -5529,15 +5585,15 @@
         <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>705</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>706</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -5548,25 +5604,22 @@
       <c r="E89" t="s">
         <v>13</v>
       </c>
-      <c r="F89" t="s">
-        <v>275</v>
-      </c>
       <c r="G89" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>277</v>
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -5578,24 +5631,24 @@
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G90" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -5607,21 +5660,21 @@
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G91" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
         <v>284</v>
@@ -5636,24 +5689,24 @@
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G92" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -5662,36 +5715,36 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -5703,24 +5756,24 @@
         <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
@@ -5732,12 +5785,12 @@
         <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
@@ -5761,12 +5814,12 @@
         <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -5778,7 +5831,7 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
@@ -5790,67 +5843,67 @@
         <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>94</v>
-      </c>
-      <c r="G99" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
         <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -5871,15 +5924,15 @@
         <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -5891,21 +5944,21 @@
         <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="G101" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="H101" t="s">
         <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
@@ -5920,21 +5973,21 @@
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G102" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
         <v>17</v>
@@ -5958,12 +6011,12 @@
         <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B104" t="s">
         <v>17</v>
@@ -5978,24 +6031,24 @@
         <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G104" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
       <c r="I104" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
@@ -6004,21 +6057,27 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>328</v>
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>323</v>
+      </c>
+      <c r="G105" t="s">
+        <v>324</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -6027,27 +6086,21 @@
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -6056,21 +6109,27 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -6079,27 +6138,21 @@
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>338</v>
-      </c>
-      <c r="G108" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>708</v>
+        <v>336</v>
       </c>
       <c r="B109" t="s">
-        <v>709</v>
+        <v>337</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -6110,22 +6163,25 @@
       <c r="E109" t="s">
         <v>13</v>
       </c>
+      <c r="F109" t="s">
+        <v>338</v>
+      </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>710</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>709</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
@@ -6136,25 +6192,22 @@
       <c r="E110" t="s">
         <v>13</v>
       </c>
-      <c r="F110" t="s">
-        <v>48</v>
-      </c>
       <c r="G110" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
       </c>
       <c r="I110" t="s">
-        <v>332</v>
+        <v>710</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B111" t="s">
-        <v>713</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -6166,24 +6219,24 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>714</v>
+        <v>49</v>
       </c>
       <c r="H111" t="s">
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>715</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B112" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -6204,15 +6257,15 @@
         <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B113" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -6221,21 +6274,27 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113" t="s">
+        <v>714</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B114" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -6250,15 +6309,15 @@
         <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B115" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -6273,15 +6332,15 @@
         <v>12</v>
       </c>
       <c r="I115" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B116" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -6290,27 +6349,21 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>730</v>
-      </c>
-      <c r="G116" t="s">
-        <v>731</v>
+        <v>221</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B117" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -6322,73 +6375,73 @@
         <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>730</v>
       </c>
       <c r="G117" t="s">
-        <v>203</v>
+        <v>731</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B118" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>203</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B119" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
-      </c>
-      <c r="I119" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B120" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -6409,15 +6462,15 @@
         <v>12</v>
       </c>
       <c r="I120" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B121" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -6438,61 +6491,70 @@
         <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="B122" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="H122" t="s">
         <v>12</v>
       </c>
       <c r="I122" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>749</v>
+        <v>681</v>
       </c>
       <c r="B123" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B124" t="s">
         <v>750</v>
@@ -6509,103 +6571,94 @@
       <c r="H124" t="s">
         <v>12</v>
       </c>
-      <c r="I124" t="s">
-        <v>752</v>
-      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>750</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>730</v>
-      </c>
-      <c r="G125" t="s">
-        <v>754</v>
+        <v>17</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>730</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>754</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
       </c>
       <c r="I126" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B127" t="s">
-        <v>759</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>759</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -6614,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
         <v>456</v>
@@ -6625,10 +6678,13 @@
       <c r="H128" t="s">
         <v>12</v>
       </c>
+      <c r="I128" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
@@ -6640,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
         <v>456</v>
@@ -6651,13 +6707,10 @@
       <c r="H129" t="s">
         <v>12</v>
       </c>
-      <c r="I129" t="s">
-        <v>763</v>
-      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B130" t="s">
         <v>17</v>
@@ -6681,12 +6734,12 @@
         <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B131" t="s">
         <v>17</v>
@@ -6710,12 +6763,12 @@
         <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B132" t="s">
         <v>17</v>
@@ -6739,12 +6792,12 @@
         <v>12</v>
       </c>
       <c r="I132" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -6768,15 +6821,15 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B134" t="s">
-        <v>773</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -6794,18 +6847,18 @@
         <v>457</v>
       </c>
       <c r="H134" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I134" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B135" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -6823,18 +6876,18 @@
         <v>457</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I135" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B136" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -6843,27 +6896,27 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>780</v>
+        <v>456</v>
       </c>
       <c r="G136" t="s">
-        <v>781</v>
+        <v>457</v>
       </c>
       <c r="H136" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B137" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
@@ -6875,24 +6928,24 @@
         <v>102</v>
       </c>
       <c r="F137" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G137" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B138" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
@@ -6913,15 +6966,15 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B139" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -6942,15 +6995,15 @@
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B140" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -6959,24 +7012,27 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="F140" t="s">
+        <v>785</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>785</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I140" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>793</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
@@ -6987,22 +7043,19 @@
       <c r="E141" t="s">
         <v>13</v>
       </c>
-      <c r="F141" t="s">
-        <v>796</v>
-      </c>
       <c r="G141" t="s">
-        <v>796</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -7026,12 +7079,12 @@
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -7055,12 +7108,12 @@
         <v>17</v>
       </c>
       <c r="I143" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B144" t="s">
         <v>17</v>
@@ -7084,12 +7137,12 @@
         <v>17</v>
       </c>
       <c r="I144" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B145" t="s">
         <v>17</v>
@@ -7113,12 +7166,12 @@
         <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -7133,24 +7186,24 @@
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>796</v>
       </c>
       <c r="G146" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B147" t="s">
-        <v>810</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
@@ -7165,18 +7218,18 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>424</v>
+        <v>807</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B148" t="s">
         <v>810</v>
@@ -7205,10 +7258,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>810</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -7220,21 +7273,21 @@
         <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>814</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>815</v>
+        <v>424</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -7258,12 +7311,12 @@
         <v>12</v>
       </c>
       <c r="I150" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -7287,12 +7340,12 @@
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
@@ -7316,15 +7369,15 @@
         <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B153" t="s">
-        <v>822</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
@@ -7336,24 +7389,24 @@
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="G153" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B154" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -7365,24 +7418,24 @@
         <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>163</v>
+        <v>823</v>
       </c>
       <c r="G154" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B155" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -7394,45 +7447,77 @@
         <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="G155" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>830</v>
+      </c>
+      <c r="B156" t="s">
+        <v>831</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>98</v>
+      </c>
+      <c r="G156" t="s">
+        <v>832</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>834</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>835</v>
       </c>
-      <c r="C156" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" t="s">
         <v>836</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
@@ -7443,61 +7528,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8146C182-EEE9-4906-9657-C8B006E099EC}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>677</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>679</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>685</v>
       </c>
     </row>
@@ -7512,26 +7600,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70F78B9-7D64-4E4F-9B7A-0DB62848DDF8}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>686</v>
       </c>
     </row>
@@ -7545,10 +7639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15FBA10-6CEA-4EFA-B0E6-FE77527D1B38}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,63 +7651,73 @@
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="str">
+        <f>HYPERLINK("https://criptapp.org/keys/citation-type/", "Citation type")</f>
+        <v>Citation type</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>351</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7623,10 +7727,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E599D25-C0F6-47DA-A3A8-72CA36EC3683}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7641,67 +7745,54 @@
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="str">
+        <f>HYPERLINK("https://criptapp.org/keys/condition-key/", "Conditions")</f>
+        <v>Conditions</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7716,41 +7807,41 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -7762,73 +7853,73 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="H5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7840,21 +7931,21 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>691</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>692</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7865,19 +7956,22 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
+      <c r="F9" t="s">
+        <v>275</v>
+      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="H9" t="s">
-        <v>693</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>691</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>692</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -7886,24 +7980,21 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>379</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7912,24 +8003,24 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
         <v>379</v>
       </c>
       <c r="G11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>837</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -7941,18 +8032,18 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>838</v>
+        <v>379</v>
       </c>
       <c r="G12" t="s">
-        <v>839</v>
+        <v>384</v>
       </c>
       <c r="H12" t="s">
-        <v>840</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>837</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -7967,21 +8058,21 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
+        <v>838</v>
       </c>
       <c r="G13" t="s">
-        <v>387</v>
+        <v>839</v>
       </c>
       <c r="H13" t="s">
-        <v>388</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7993,21 +8084,21 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8019,18 +8110,18 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="G15" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -8045,18 +8136,18 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -8077,12 +8168,12 @@
         <v>398</v>
       </c>
       <c r="H17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -8097,73 +8188,73 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
       <c r="H18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -8175,24 +8266,24 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="H21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -8201,24 +8292,24 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>702</v>
+        <v>412</v>
       </c>
       <c r="B23" t="s">
-        <v>703</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -8226,19 +8317,22 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H23" t="s">
-        <v>704</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>702</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>703</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -8247,18 +8341,21 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>417</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>292</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -8267,24 +8364,18 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>419</v>
-      </c>
-      <c r="G25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -8296,21 +8387,21 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>419</v>
       </c>
       <c r="G26" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -8322,21 +8413,21 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>427</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -8348,18 +8439,18 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>428</v>
       </c>
       <c r="G28" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -8380,12 +8471,12 @@
         <v>432</v>
       </c>
       <c r="H29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -8400,18 +8491,18 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -8426,38 +8517,44 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="G31" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H31" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" t="s">
+        <v>439</v>
       </c>
       <c r="H32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -8469,47 +8566,41 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>841</v>
+        <v>443</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>842</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>841</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -8524,18 +8615,18 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>387</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="H35" t="s">
-        <v>445</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -8550,21 +8641,21 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="G36" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="H36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s">
-        <v>450</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -8576,21 +8667,21 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>447</v>
       </c>
       <c r="G37" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -8601,16 +8692,22 @@
       <c r="E38" t="s">
         <v>13</v>
       </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>451</v>
+      </c>
       <c r="H38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B39" t="s">
-        <v>455</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -8621,22 +8718,16 @@
       <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="F39" t="s">
-        <v>456</v>
-      </c>
-      <c r="G39" t="s">
-        <v>457</v>
-      </c>
       <c r="H39" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B40" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -8648,21 +8739,21 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G40" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H40" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -8674,21 +8765,21 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>461</v>
       </c>
       <c r="G41" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H41" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B42" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -8706,15 +8797,15 @@
         <v>466</v>
       </c>
       <c r="H42" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B43" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -8732,15 +8823,15 @@
         <v>466</v>
       </c>
       <c r="H43" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B44" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -8752,21 +8843,21 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>476</v>
+        <v>275</v>
       </c>
       <c r="G44" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="H44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B45" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -8778,39 +8869,68 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G45" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H45" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>478</v>
+      </c>
+      <c r="B46" t="s">
+        <v>479</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>480</v>
+      </c>
+      <c r="G46" t="s">
+        <v>481</v>
+      </c>
+      <c r="H46" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>834</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>835</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
         <v>836</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8820,9 +8940,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1CDBE-C0EB-4B6C-9F42-C99DC257B084}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8830,711 +8952,721 @@
     <col min="2" max="2" width="143.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="str">
+        <f>HYPERLINK("https://criptapp.org/keys/material-keyword/", "Material keyword")</f>
+        <v>Material keyword</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>843</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
-        <v>844</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>843</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>845</v>
+        <v>531</v>
       </c>
       <c r="B28" t="s">
-        <v>846</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>845</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>847</v>
+        <v>535</v>
       </c>
       <c r="B31" t="s">
-        <v>848</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>847</v>
       </c>
       <c r="B32" t="s">
-        <v>538</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B37" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B38" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B43" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B46" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B47" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B48" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B49" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B50" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B52" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B53" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B54" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B55" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B56" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B57" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B58" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B59" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B61" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B62" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B63" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B64" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B66" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B67" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B68" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B69" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B71" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B72" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B73" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B75" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B76" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B77" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B78" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B79" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B80" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B81" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B82" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B83" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B84" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B85" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B86" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B87" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>647</v>
+      </c>
+      <c r="B88" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>649</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>650</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
@@ -9545,10 +9677,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABAB8-9F16-4C85-958F-9BD932FA0E18}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9560,60 +9692,53 @@
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="str">
+        <f>HYPERLINK("https://criptapp.org/keys/material-identifier-key/", "Material identifiers")</f>
+        <v>Material identifiers</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>652</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -9625,12 +9750,12 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -9642,12 +9767,12 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -9659,12 +9784,12 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -9676,12 +9801,12 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>849</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -9693,12 +9818,12 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>662</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -9710,12 +9835,12 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -9727,80 +9852,80 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -9812,10 +9937,30 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>676</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F52B380-5FA4-4D0C-99B1-30C8437DA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C54A2-78BC-4892-8CF7-1BE095F3E6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
-    <sheet name="attribute" sheetId="6" r:id="rId2"/>
-    <sheet name="relation" sheetId="7" r:id="rId3"/>
-    <sheet name="type" sheetId="2" r:id="rId4"/>
-    <sheet name="condition" sheetId="3" r:id="rId5"/>
-    <sheet name="keywords" sheetId="4" r:id="rId6"/>
-    <sheet name="identifiers" sheetId="5" r:id="rId7"/>
+    <sheet name="method" sheetId="8" r:id="rId2"/>
+    <sheet name="attribute" sheetId="6" r:id="rId3"/>
+    <sheet name="relation" sheetId="7" r:id="rId4"/>
+    <sheet name="type" sheetId="2" r:id="rId5"/>
+    <sheet name="condition" sheetId="3" r:id="rId6"/>
+    <sheet name="keywords" sheetId="4" r:id="rId7"/>
+    <sheet name="identifiers" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="957">
   <si>
     <t>Name</t>
   </si>
@@ -2595,6 +2596,324 @@
   </si>
   <si>
     <t>Attributes for Excel Uploader that do not exist in CRIPT controlled vocabulary</t>
+  </si>
+  <si>
+    <t>afm</t>
+  </si>
+  <si>
+    <t>atomic force microscopy</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_A</t>
+  </si>
+  <si>
+    <t>Density test: density of uncored foam by calculation from the mass and volume of the specimen</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_B1</t>
+  </si>
+  <si>
+    <t>Deflection based Indentation Force Deflection (IFD/ILD): measures the indentation force deflection of urethane foam and foam-like substances</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_B2</t>
+  </si>
+  <si>
+    <t>Indentation Residual Gauge Length (IRGL): determine how thick the padding is after being loaded by an average weight person</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_C</t>
+  </si>
+  <si>
+    <t>Compression Force Deflection (CFD): measures the force necessary to produce a 50 % compression over the entire top area of the foam specimen</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_D</t>
+  </si>
+  <si>
+    <t>CONSTANT DEFLECTION COMPRESSION SET TEST: deflecting the foam specimen to a specified deflection, exposing it to specified conditions of time and temperature and measuring the change in the thickness of the specimen after a specified recovery period.</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_E</t>
+  </si>
+  <si>
+    <t>Tensile Strength and Elongation: measure the tensile strength and deformation properties of flexible cellular polymeric materials at a constant test speed, or rate of extension (CRE) through failure</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_F</t>
+  </si>
+  <si>
+    <t>Tear Resistance Strength: tear propagation resistance of foam</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_G</t>
+  </si>
+  <si>
+    <t>AIR FLOW TEST: measures the ease with which air passes through a cellular structure</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_H</t>
+  </si>
+  <si>
+    <t>RESILIENCE (BALL REBOUND) TEST: dropping a steel ball on a foam specimen and noting the height of rebound</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_I1</t>
+  </si>
+  <si>
+    <t>Static Force Loss Test at Constant Deflection: (1) a loss of IFD, (2) a loss of thickness, and (3) structural breakdown by visual examination.</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_I2</t>
+  </si>
+  <si>
+    <t>Dynamic Fatigue by Roller Shear at Constant Force: procedure fatigues the specimen dynamically at a constant force, deflecting the material both vertically and laterally</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_I3</t>
+  </si>
+  <si>
+    <t>Dynamic Fatigue Test by Constant Force Pounding: loss of force support at 40 % IFD, loss in thickness, and the structural breakdown as assessed by visual inspection</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_I4</t>
+  </si>
+  <si>
+    <t>Dynamic Fatigue Test for Carpet Cushion: (1) retention of load bearing (65 % IFD), (2) a loss in thickness, and (3) structural breakdown as addressed by visual inspection</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_I5</t>
+  </si>
+  <si>
+    <t>Dynamic Fatigue Test, Constant Deflection Pounding</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_J</t>
+  </si>
+  <si>
+    <t>STEAM AUTOCLAVE AGING: treating the foam specimen in a low-pressure steam autoclave and observing the effects on the properties of the foam specimen</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_K</t>
+  </si>
+  <si>
+    <t>DRY HEAT AGING: exposing foam specimens in an air-circulating oven and observing the effect on the properties of the foam</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_L</t>
+  </si>
+  <si>
+    <t>WET HEAT AGING: exposing foam specimens in an environmental chamber and observing the effect on the properties of the foam.</t>
+  </si>
+  <si>
+    <t>ASTM_D3574_Test_M</t>
+  </si>
+  <si>
+    <t>Recovery Time of Viscoelastic or Memory Foam: determine the recovery time of slow recovery (memory) foams</t>
+  </si>
+  <si>
+    <t>calorimetry</t>
+  </si>
+  <si>
+    <t>chrom</t>
+  </si>
+  <si>
+    <t>general chromatography</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>computation or simulation</t>
+  </si>
+  <si>
+    <t>confocal</t>
+  </si>
+  <si>
+    <t>confocal microscopy</t>
+  </si>
+  <si>
+    <t>cryoscopy</t>
+  </si>
+  <si>
+    <t>dls</t>
+  </si>
+  <si>
+    <t>dynamic light scattering</t>
+  </si>
+  <si>
+    <t>dma</t>
+  </si>
+  <si>
+    <t>dynamic mechanical analysis</t>
+  </si>
+  <si>
+    <t>dsc</t>
+  </si>
+  <si>
+    <t>differential scanning calorimetry</t>
+  </si>
+  <si>
+    <t>ebullioscopy</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>gas chromatography</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>infrared spectroscopy</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>static light scattering</t>
+  </si>
+  <si>
+    <t>maldi</t>
+  </si>
+  <si>
+    <t>matrix assisted laser desorption ionization</t>
+  </si>
+  <si>
+    <t>mals</t>
+  </si>
+  <si>
+    <t>multi-angle light scattering</t>
+  </si>
+  <si>
+    <t>membrane_osmometry</t>
+  </si>
+  <si>
+    <t>membrane osmometry</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>general mass spectrometry</t>
+  </si>
+  <si>
+    <t>near-ir</t>
+  </si>
+  <si>
+    <t>neutron</t>
+  </si>
+  <si>
+    <t>neutron scattering</t>
+  </si>
+  <si>
+    <t>nmr</t>
+  </si>
+  <si>
+    <t>nuclear magnetic resonance</t>
+  </si>
+  <si>
+    <t>osmtic_pres</t>
+  </si>
+  <si>
+    <t>osmotic pressure</t>
+  </si>
+  <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t>a value that can be defined, (Ex. calculating MW from molecular formula)</t>
+  </si>
+  <si>
+    <t>raman</t>
+  </si>
+  <si>
+    <t>raman spectroscopy</t>
+  </si>
+  <si>
+    <t>saxs</t>
+  </si>
+  <si>
+    <t>small-angle x-ray scattering</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>size exclusion chromatography / gel permeation chromatography (GPC)</t>
+  </si>
+  <si>
+    <t>sec_ir</t>
+  </si>
+  <si>
+    <t>size exclusion chromatography with on-line infrared spectroscopy</t>
+  </si>
+  <si>
+    <t>sec_mals</t>
+  </si>
+  <si>
+    <t>size exclusion chromatography with on-line multi-angle light scattering</t>
+  </si>
+  <si>
+    <t>sec_visco</t>
+  </si>
+  <si>
+    <t>size exclusion chromatography with on-line viscometry</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>scanning electron microscopy</t>
+  </si>
+  <si>
+    <t>tem</t>
+  </si>
+  <si>
+    <t>transmission electron microscopy</t>
+  </si>
+  <si>
+    <t>tga</t>
+  </si>
+  <si>
+    <t>thermogravimetric analysis</t>
+  </si>
+  <si>
+    <t>ultra_centr</t>
+  </si>
+  <si>
+    <t>ultra centrifugation</t>
+  </si>
+  <si>
+    <t>utm</t>
+  </si>
+  <si>
+    <t>universal testing machine</t>
+  </si>
+  <si>
+    <t>uv_vis</t>
+  </si>
+  <si>
+    <t>ultraviolet-visible spectroscopy</t>
+  </si>
+  <si>
+    <t>viscometer</t>
+  </si>
+  <si>
+    <t>waxs</t>
+  </si>
+  <si>
+    <t>wide-angle x-ray scattering</t>
+  </si>
+  <si>
+    <t>x_ray</t>
+  </si>
+  <si>
+    <t>x-ray spectroscopy</t>
   </si>
 </sst>
 </file>
@@ -2693,17 +3012,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3115,7 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B6A50-1025-42AE-89F7-24E7EE793A8D}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3133,18 +3455,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <f>HYPERLINK("Material property key", "Material property key")</f>
         <v>Material property key</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7527,6 +7849,492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA6F0B4-BFFA-493D-ABE4-6F7226C201B0}">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="236" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="str">
+        <f>HYPERLINK("https://criptapp.org/keys/property-method/", "Property Methods")</f>
+        <v>Property Methods</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>865</v>
+      </c>
+      <c r="B10" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>867</v>
+      </c>
+      <c r="B11" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>869</v>
+      </c>
+      <c r="B12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B13" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>873</v>
+      </c>
+      <c r="B14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>875</v>
+      </c>
+      <c r="B15" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B16" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>879</v>
+      </c>
+      <c r="B17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>881</v>
+      </c>
+      <c r="B18" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>883</v>
+      </c>
+      <c r="B19" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>885</v>
+      </c>
+      <c r="B20" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>887</v>
+      </c>
+      <c r="B21" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>889</v>
+      </c>
+      <c r="B22" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>890</v>
+      </c>
+      <c r="B23" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>892</v>
+      </c>
+      <c r="B24" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>894</v>
+      </c>
+      <c r="B25" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>896</v>
+      </c>
+      <c r="B26" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>897</v>
+      </c>
+      <c r="B27" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>899</v>
+      </c>
+      <c r="B28" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>901</v>
+      </c>
+      <c r="B29" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>903</v>
+      </c>
+      <c r="B30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>904</v>
+      </c>
+      <c r="B31" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>906</v>
+      </c>
+      <c r="B32" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>908</v>
+      </c>
+      <c r="B33" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>910</v>
+      </c>
+      <c r="B34" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>912</v>
+      </c>
+      <c r="B35" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>914</v>
+      </c>
+      <c r="B36" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>916</v>
+      </c>
+      <c r="B37" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>918</v>
+      </c>
+      <c r="B38" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>919</v>
+      </c>
+      <c r="B39" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>921</v>
+      </c>
+      <c r="B40" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>923</v>
+      </c>
+      <c r="B41" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>925</v>
+      </c>
+      <c r="B42" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>927</v>
+      </c>
+      <c r="B43" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>929</v>
+      </c>
+      <c r="B44" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>931</v>
+      </c>
+      <c r="B45" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>932</v>
+      </c>
+      <c r="B46" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>934</v>
+      </c>
+      <c r="B47" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>936</v>
+      </c>
+      <c r="B48" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>938</v>
+      </c>
+      <c r="B49" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>940</v>
+      </c>
+      <c r="B50" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>942</v>
+      </c>
+      <c r="B51" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>944</v>
+      </c>
+      <c r="B52" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>946</v>
+      </c>
+      <c r="B53" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>948</v>
+      </c>
+      <c r="B54" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>950</v>
+      </c>
+      <c r="B55" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>952</v>
+      </c>
+      <c r="B56" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>953</v>
+      </c>
+      <c r="B57" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>955</v>
+      </c>
+      <c r="B58" t="s">
+        <v>956</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8146C182-EEE9-4906-9657-C8B006E099EC}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7539,7 +8347,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>850</v>
       </c>
     </row>
@@ -7598,7 +8406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70F78B9-7D64-4E4F-9B7A-0DB62848DDF8}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -7610,7 +8418,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>850</v>
       </c>
     </row>
@@ -7637,7 +8445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15FBA10-6CEA-4EFA-B0E6-FE77527D1B38}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -7652,11 +8460,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/citation-type/", "Citation type")</f>
         <v>Citation type</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7725,7 +8533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E599D25-C0F6-47DA-A3A8-72CA36EC3683}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -7746,17 +8554,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="4" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/condition-key/", "Conditions")</f>
         <v>Conditions</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8938,7 +9746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1CDBE-C0EB-4B6C-9F42-C99DC257B084}">
   <dimension ref="A1:B89"/>
   <sheetViews>
@@ -8953,11 +9761,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="5" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/material-keyword/", "Material keyword")</f>
         <v>Material keyword</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9675,7 +10483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABAB8-9F16-4C85-958F-9BD932FA0E18}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -9693,14 +10501,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/material-identifier-key/", "Material identifiers")</f>
         <v>Material identifiers</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/utils/excel_files/source.xlsx
+++ b/utils/excel_files/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C54A2-78BC-4892-8CF7-1BE095F3E6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E820CCD8-B8C1-4CC7-B90E-5D4EAA26F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{110CA66B-9233-4308-815F-6679B6D285C8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="908">
   <si>
     <t>Name</t>
   </si>
@@ -2601,319 +2601,172 @@
     <t>afm</t>
   </si>
   <si>
-    <t>atomic force microscopy</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_A</t>
   </si>
   <si>
-    <t>Density test: density of uncored foam by calculation from the mass and volume of the specimen</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_B1</t>
   </si>
   <si>
-    <t>Deflection based Indentation Force Deflection (IFD/ILD): measures the indentation force deflection of urethane foam and foam-like substances</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_B2</t>
   </si>
   <si>
-    <t>Indentation Residual Gauge Length (IRGL): determine how thick the padding is after being loaded by an average weight person</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_C</t>
   </si>
   <si>
-    <t>Compression Force Deflection (CFD): measures the force necessary to produce a 50 % compression over the entire top area of the foam specimen</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_D</t>
   </si>
   <si>
-    <t>CONSTANT DEFLECTION COMPRESSION SET TEST: deflecting the foam specimen to a specified deflection, exposing it to specified conditions of time and temperature and measuring the change in the thickness of the specimen after a specified recovery period.</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_E</t>
   </si>
   <si>
-    <t>Tensile Strength and Elongation: measure the tensile strength and deformation properties of flexible cellular polymeric materials at a constant test speed, or rate of extension (CRE) through failure</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_F</t>
   </si>
   <si>
-    <t>Tear Resistance Strength: tear propagation resistance of foam</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_G</t>
   </si>
   <si>
-    <t>AIR FLOW TEST: measures the ease with which air passes through a cellular structure</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_H</t>
   </si>
   <si>
-    <t>RESILIENCE (BALL REBOUND) TEST: dropping a steel ball on a foam specimen and noting the height of rebound</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I1</t>
   </si>
   <si>
-    <t>Static Force Loss Test at Constant Deflection: (1) a loss of IFD, (2) a loss of thickness, and (3) structural breakdown by visual examination.</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I2</t>
   </si>
   <si>
-    <t>Dynamic Fatigue by Roller Shear at Constant Force: procedure fatigues the specimen dynamically at a constant force, deflecting the material both vertically and laterally</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I3</t>
   </si>
   <si>
-    <t>Dynamic Fatigue Test by Constant Force Pounding: loss of force support at 40 % IFD, loss in thickness, and the structural breakdown as assessed by visual inspection</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I4</t>
   </si>
   <si>
-    <t>Dynamic Fatigue Test for Carpet Cushion: (1) retention of load bearing (65 % IFD), (2) a loss in thickness, and (3) structural breakdown as addressed by visual inspection</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I5</t>
   </si>
   <si>
-    <t>Dynamic Fatigue Test, Constant Deflection Pounding</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_J</t>
   </si>
   <si>
-    <t>STEAM AUTOCLAVE AGING: treating the foam specimen in a low-pressure steam autoclave and observing the effects on the properties of the foam specimen</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_K</t>
   </si>
   <si>
-    <t>DRY HEAT AGING: exposing foam specimens in an air-circulating oven and observing the effect on the properties of the foam</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_L</t>
   </si>
   <si>
-    <t>WET HEAT AGING: exposing foam specimens in an environmental chamber and observing the effect on the properties of the foam.</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_M</t>
   </si>
   <si>
-    <t>Recovery Time of Viscoelastic or Memory Foam: determine the recovery time of slow recovery (memory) foams</t>
-  </si>
-  <si>
     <t>calorimetry</t>
   </si>
   <si>
     <t>chrom</t>
   </si>
   <si>
-    <t>general chromatography</t>
-  </si>
-  <si>
     <t>comp</t>
   </si>
   <si>
-    <t>computation or simulation</t>
-  </si>
-  <si>
     <t>confocal</t>
   </si>
   <si>
-    <t>confocal microscopy</t>
-  </si>
-  <si>
     <t>cryoscopy</t>
   </si>
   <si>
     <t>dls</t>
   </si>
   <si>
-    <t>dynamic light scattering</t>
-  </si>
-  <si>
     <t>dma</t>
   </si>
   <si>
-    <t>dynamic mechanical analysis</t>
-  </si>
-  <si>
     <t>dsc</t>
   </si>
   <si>
-    <t>differential scanning calorimetry</t>
-  </si>
-  <si>
     <t>ebullioscopy</t>
   </si>
   <si>
     <t>gc</t>
   </si>
   <si>
-    <t>gas chromatography</t>
-  </si>
-  <si>
     <t>ir</t>
   </si>
   <si>
-    <t>infrared spectroscopy</t>
-  </si>
-  <si>
     <t>ls</t>
   </si>
   <si>
-    <t>static light scattering</t>
-  </si>
-  <si>
     <t>maldi</t>
   </si>
   <si>
-    <t>matrix assisted laser desorption ionization</t>
-  </si>
-  <si>
     <t>mals</t>
   </si>
   <si>
-    <t>multi-angle light scattering</t>
-  </si>
-  <si>
     <t>membrane_osmometry</t>
   </si>
   <si>
-    <t>membrane osmometry</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
-    <t>general mass spectrometry</t>
-  </si>
-  <si>
     <t>near-ir</t>
   </si>
   <si>
     <t>neutron</t>
   </si>
   <si>
-    <t>neutron scattering</t>
-  </si>
-  <si>
     <t>nmr</t>
   </si>
   <si>
-    <t>nuclear magnetic resonance</t>
-  </si>
-  <si>
     <t>osmtic_pres</t>
   </si>
   <si>
-    <t>osmotic pressure</t>
-  </si>
-  <si>
     <t>prescribed</t>
   </si>
   <si>
-    <t>a value that can be defined, (Ex. calculating MW from molecular formula)</t>
-  </si>
-  <si>
     <t>raman</t>
   </si>
   <si>
-    <t>raman spectroscopy</t>
-  </si>
-  <si>
     <t>saxs</t>
   </si>
   <si>
-    <t>small-angle x-ray scattering</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
     <t>sec</t>
   </si>
   <si>
-    <t>size exclusion chromatography / gel permeation chromatography (GPC)</t>
-  </si>
-  <si>
     <t>sec_ir</t>
   </si>
   <si>
-    <t>size exclusion chromatography with on-line infrared spectroscopy</t>
-  </si>
-  <si>
     <t>sec_mals</t>
   </si>
   <si>
-    <t>size exclusion chromatography with on-line multi-angle light scattering</t>
-  </si>
-  <si>
     <t>sec_visco</t>
   </si>
   <si>
-    <t>size exclusion chromatography with on-line viscometry</t>
-  </si>
-  <si>
     <t>sem</t>
   </si>
   <si>
-    <t>scanning electron microscopy</t>
-  </si>
-  <si>
     <t>tem</t>
   </si>
   <si>
-    <t>transmission electron microscopy</t>
-  </si>
-  <si>
     <t>tga</t>
   </si>
   <si>
-    <t>thermogravimetric analysis</t>
-  </si>
-  <si>
     <t>ultra_centr</t>
   </si>
   <si>
-    <t>ultra centrifugation</t>
-  </si>
-  <si>
     <t>utm</t>
   </si>
   <si>
-    <t>universal testing machine</t>
-  </si>
-  <si>
     <t>uv_vis</t>
   </si>
   <si>
-    <t>ultraviolet-visible spectroscopy</t>
-  </si>
-  <si>
     <t>viscometer</t>
   </si>
   <si>
     <t>waxs</t>
   </si>
   <si>
-    <t>wide-angle x-ray scattering</t>
-  </si>
-  <si>
     <t>x_ray</t>
   </si>
   <si>
-    <t>x-ray spectroscopy</t>
+    <t>Mark True if using this method</t>
   </si>
 </sst>
 </file>
@@ -3019,13 +2872,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3066,6 +2919,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9BEDF5C-C77F-4114-98DE-E760FB590A32}" name="Table1" displayName="Table1" ref="A2:B58" totalsRowShown="0">
+  <autoFilter ref="A2:B58" xr:uid="{E9BEDF5C-C77F-4114-98DE-E760FB590A32}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9E419F6A-EE2F-4813-A0AB-DD5F46346526}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F27B0B33-DCB8-4E8B-B83E-2085B5BDE00B}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}" name="Table6" displayName="Table6" ref="A2:A10" totalsRowShown="0">
   <autoFilter ref="A2:A10" xr:uid="{08375CC6-08AA-43D6-AB3A-756AAC89AEAC}"/>
   <tableColumns count="1">
@@ -3075,7 +2939,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}" name="Table7" displayName="Table7" ref="A2:A4" totalsRowShown="0">
   <autoFilter ref="A2:A4" xr:uid="{EF05AA22-DDA4-4803-AD8D-33C0EB69322C}"/>
   <tableColumns count="1">
@@ -3085,7 +2949,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0">
   <autoFilter ref="A2:B8" xr:uid="{2DC5A8CE-6E1C-43BC-B8E8-26149E0DBD79}"/>
   <tableColumns count="2">
@@ -3096,7 +2960,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}" name="Table9" displayName="Table9" ref="A2:H47" totalsRowShown="0">
   <autoFilter ref="A2:H47" xr:uid="{339E7F3F-70E2-4163-AE2C-018E0146E496}"/>
   <tableColumns count="8">
@@ -3113,7 +2977,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}" name="Table10" displayName="Table10" ref="A2:B89" totalsRowShown="0">
   <autoFilter ref="A2:B89" xr:uid="{21CFE177-A0B4-4115-93DE-5F17F62DC9E3}"/>
   <tableColumns count="2">
@@ -3124,7 +2988,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}" name="Table11" displayName="Table11" ref="A2:E16" totalsRowShown="0">
   <autoFilter ref="A2:E16" xr:uid="{64AB9C62-22E0-4D98-8754-5D3D5553C598}"/>
   <tableColumns count="5">
@@ -7852,8 +7716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA6F0B4-BFFA-493D-ABE4-6F7226C201B0}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7863,11 +7727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="str">
+      <c r="A1" s="4" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/property-method/", "Property Methods")</f>
         <v>Property Methods</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7882,236 +7746,236 @@
         <v>851</v>
       </c>
       <c r="B3" t="s">
-        <v>852</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B4" t="s">
-        <v>854</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B5" t="s">
-        <v>856</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B6" t="s">
-        <v>858</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B7" t="s">
-        <v>860</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B8" t="s">
-        <v>862</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B9" t="s">
-        <v>864</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B10" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B11" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B12" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B13" t="s">
-        <v>872</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="B14" t="s">
-        <v>874</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B15" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B16" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B17" t="s">
-        <v>880</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B18" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="B19" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="B20" t="s">
-        <v>886</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="B21" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B22" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="B23" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="B24" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="B25" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B26" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="B27" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="B28" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="B29" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="B30" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="B31" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="B32" t="s">
         <v>907</v>
@@ -8119,47 +7983,47 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="B33" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="B34" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>912</v>
+        <v>883</v>
       </c>
       <c r="B35" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="B36" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>916</v>
+        <v>885</v>
       </c>
       <c r="B37" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>918</v>
+        <v>886</v>
       </c>
       <c r="B38" t="s">
         <v>907</v>
@@ -8167,162 +8031,162 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>919</v>
+        <v>887</v>
       </c>
       <c r="B39" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="B40" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
       <c r="B41" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>925</v>
+        <v>890</v>
       </c>
       <c r="B42" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>927</v>
+        <v>891</v>
       </c>
       <c r="B43" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B44" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>931</v>
+        <v>893</v>
       </c>
       <c r="B45" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>932</v>
+        <v>894</v>
       </c>
       <c r="B46" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>934</v>
+        <v>895</v>
       </c>
       <c r="B47" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="B48" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>938</v>
+        <v>897</v>
       </c>
       <c r="B49" t="s">
-        <v>939</v>
+        <v>907</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>940</v>
+        <v>898</v>
       </c>
       <c r="B50" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>942</v>
+        <v>899</v>
       </c>
       <c r="B51" t="s">
-        <v>943</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>944</v>
+        <v>900</v>
       </c>
       <c r="B52" t="s">
-        <v>945</v>
+        <v>907</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>946</v>
+        <v>901</v>
       </c>
       <c r="B53" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>948</v>
+        <v>902</v>
       </c>
       <c r="B54" t="s">
-        <v>949</v>
+        <v>907</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="B55" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>952</v>
+        <v>904</v>
       </c>
       <c r="B56" t="s">
-        <v>952</v>
+        <v>907</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="B57" t="s">
-        <v>954</v>
+        <v>907</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>955</v>
+        <v>906</v>
       </c>
       <c r="B58" t="s">
-        <v>956</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -8331,6 +8195,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8554,17 +8421,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="5" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/condition-key/", "Conditions")</f>
         <v>Conditions</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9761,11 +9628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="6" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/material-keyword/", "Material keyword")</f>
         <v>Material keyword</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
